--- a/graphs.xlsx
+++ b/graphs.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hmitc\Documents\GitHub\project-1-team_38\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{18FDC855-6377-4BB5-8DD8-F1C812930EA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70FD47CD-E1C6-4CF9-A7AC-4A79229A7062}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24840" yWindow="4530" windowWidth="7500" windowHeight="6000" xr2:uid="{60220C9E-3399-4490-8720-93C6705751AA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{60220C9E-3399-4490-8720-93C6705751AA}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Accuracy vs Number of Epochs " sheetId="1" r:id="rId1"/>
+    <sheet name="Gantt Chart" sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,22 +34,104 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="29">
   <si>
     <t>Epoch</t>
   </si>
   <si>
     <t>Accuracy</t>
   </si>
+  <si>
+    <t>First Sample Project</t>
+  </si>
+  <si>
+    <t>TEAM MEMBER</t>
+  </si>
+  <si>
+    <t>TASK NAME</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Th</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>WEEK 7</t>
+  </si>
+  <si>
+    <t>WEEK 6</t>
+  </si>
+  <si>
+    <t>MID-SEM BREAK</t>
+  </si>
+  <si>
+    <t>Main Window</t>
+  </si>
+  <si>
+    <t>Train Model Dialog</t>
+  </si>
+  <si>
+    <t>Drawing Box</t>
+  </si>
+  <si>
+    <t>Code Restructuring</t>
+  </si>
+  <si>
+    <t>Training and Testing</t>
+  </si>
+  <si>
+    <t>Error Dialog</t>
+  </si>
+  <si>
+    <t>View Images Dialog</t>
+  </si>
+  <si>
+    <t>Threading training process</t>
+  </si>
+  <si>
+    <t>Probability chart</t>
+  </si>
+  <si>
+    <t>Image processing</t>
+  </si>
+  <si>
+    <t>GANTT CHART</t>
+  </si>
+  <si>
+    <t>Date (April)</t>
+  </si>
+  <si>
+    <t>Adapted from https://www.teamgantt.com/free-gantt-chart-excel-template</t>
+  </si>
+  <si>
+    <t>Graphing</t>
+  </si>
+  <si>
+    <t>Sa</t>
+  </si>
+  <si>
+    <t>Su</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0%"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,16 +146,117 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0B5394"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF0B5394"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF434343"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF666666"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="26"/>
+      <color rgb="FF576C88"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3F3F3"/>
+        <bgColor rgb="FFF3F3F3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00ADEE"/>
+        <bgColor rgb="FF00ADEE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEFEFEF"/>
+        <bgColor rgb="FFEFEFEF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5CBCD6"/>
+        <bgColor rgb="FF5CBCD6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -80,18 +264,164 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color rgb="FFB7B7B7"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color rgb="FFB7B7B7"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB7B7B7"/>
+      </left>
+      <right style="hair">
+        <color rgb="FFB7B7B7"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color rgb="FFB7B7B7"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFB7B7B7"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFB7B7B7"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB7B7B7"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFB7B7B7"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="8" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="3"/>
+    <xf numFmtId="166" fontId="1" fillId="3" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="0" xfId="3" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="6">
+    <cellStyle name="60% - Accent3" xfId="3" builtinId="40"/>
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="4" xr:uid="{D88686A6-5C33-43E9-8E21-CEC7F09ADEC8}"/>
+    <cellStyle name="Normal 3" xfId="5" xr:uid="{A27E6301-129A-4941-907F-64659BF719B8}"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="1">
@@ -211,7 +541,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$2</c:f>
+              <c:f>'Accuracy vs Number of Epochs '!$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -246,7 +576,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$14</c:f>
+              <c:f>'Accuracy vs Number of Epochs '!$B$3:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -291,7 +621,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$3:$C$14</c:f>
+              <c:f>'Accuracy vs Number of Epochs '!$C$3:$C$14</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1543,16 +1873,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B03929BC-DE6E-4990-843C-AB3F94983EF1}">
   <dimension ref="B2:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -1560,7 +1890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3">
       <c r="B3">
         <v>1</v>
       </c>
@@ -1568,7 +1898,7 @@
         <v>0.58150000000000002</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3">
       <c r="B4">
         <v>2</v>
       </c>
@@ -1576,7 +1906,7 @@
         <v>0.87360000000000004</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3">
       <c r="B5">
         <v>3</v>
       </c>
@@ -1584,7 +1914,7 @@
         <v>0.91639999999999999</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3">
       <c r="B6">
         <v>4</v>
       </c>
@@ -1592,7 +1922,7 @@
         <v>0.94079999999999997</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:3">
       <c r="B7">
         <v>5</v>
       </c>
@@ -1600,7 +1930,7 @@
         <v>0.95209999999999995</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3">
       <c r="B8">
         <v>6</v>
       </c>
@@ -1608,7 +1938,7 @@
         <v>0.95760000000000001</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:3">
       <c r="B9">
         <v>7</v>
       </c>
@@ -1616,7 +1946,7 @@
         <v>0.96299999999999997</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:3">
       <c r="B10">
         <v>8</v>
       </c>
@@ -1624,7 +1954,7 @@
         <v>0.96579999999999999</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:3">
       <c r="B11">
         <v>9</v>
       </c>
@@ -1632,7 +1962,7 @@
         <v>0.96840000000000004</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:3">
       <c r="B12">
         <v>10</v>
       </c>
@@ -1640,7 +1970,7 @@
         <v>0.96460000000000001</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:3">
       <c r="B13">
         <v>11</v>
       </c>
@@ -1648,7 +1978,7 @@
         <v>0.97189999999999999</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:3">
       <c r="B14">
         <v>12</v>
       </c>
@@ -1663,4 +1993,5146 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24992186-F4B0-4FFC-8364-D7FDA9C47DBA}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:BK996"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AG18" sqref="AG18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="2.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="35.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" style="3" customWidth="1"/>
+    <col min="4" max="63" width="4.42578125" style="3" customWidth="1"/>
+    <col min="64" max="16384" width="14.42578125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:63" ht="15.75" customHeight="1">
+      <c r="A1" s="19"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="7"/>
+      <c r="Z1" s="7"/>
+      <c r="AA1" s="7"/>
+      <c r="AB1" s="7"/>
+      <c r="AC1" s="7"/>
+      <c r="AD1" s="7"/>
+      <c r="AE1" s="7"/>
+      <c r="AF1" s="7"/>
+      <c r="AG1" s="7"/>
+      <c r="AH1" s="7"/>
+      <c r="AI1" s="7"/>
+      <c r="AJ1" s="7"/>
+      <c r="AK1" s="7"/>
+      <c r="AL1" s="7"/>
+      <c r="AM1" s="7"/>
+      <c r="AN1" s="7"/>
+      <c r="AO1" s="7"/>
+      <c r="AP1" s="7"/>
+      <c r="AQ1" s="7"/>
+      <c r="AR1" s="7"/>
+      <c r="AS1" s="7"/>
+      <c r="AT1" s="7"/>
+      <c r="AU1" s="7"/>
+      <c r="AV1" s="7"/>
+      <c r="AW1" s="7"/>
+      <c r="AX1" s="7"/>
+      <c r="AY1" s="7"/>
+      <c r="AZ1" s="7"/>
+      <c r="BA1" s="7"/>
+      <c r="BB1" s="7"/>
+      <c r="BC1" s="7"/>
+      <c r="BD1" s="7"/>
+      <c r="BE1" s="7"/>
+      <c r="BF1" s="7"/>
+      <c r="BG1" s="7"/>
+      <c r="BH1" s="7"/>
+      <c r="BI1" s="7"/>
+      <c r="BJ1" s="7"/>
+      <c r="BK1" s="7"/>
+    </row>
+    <row r="2" spans="1:63" ht="15.75" customHeight="1">
+      <c r="A2" s="20"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="7"/>
+      <c r="AB2" s="7"/>
+      <c r="AC2" s="7"/>
+      <c r="AD2" s="7"/>
+      <c r="AE2" s="7"/>
+      <c r="AF2" s="7"/>
+      <c r="AG2" s="7"/>
+      <c r="AH2" s="7"/>
+      <c r="AI2" s="7"/>
+      <c r="AJ2" s="7"/>
+      <c r="AK2" s="7"/>
+      <c r="AL2" s="7"/>
+      <c r="AM2" s="7"/>
+      <c r="AN2" s="7"/>
+      <c r="AO2" s="7"/>
+      <c r="AP2" s="7"/>
+      <c r="AQ2" s="7"/>
+      <c r="AR2" s="7"/>
+      <c r="AS2" s="7"/>
+      <c r="AT2" s="7"/>
+      <c r="AU2" s="7"/>
+      <c r="AV2" s="7"/>
+      <c r="AW2" s="7"/>
+      <c r="AX2" s="7"/>
+      <c r="AY2" s="7"/>
+      <c r="AZ2" s="7"/>
+      <c r="BA2" s="7"/>
+      <c r="BB2" s="7"/>
+      <c r="BC2" s="7"/>
+      <c r="BD2" s="7"/>
+      <c r="BE2" s="7"/>
+      <c r="BF2" s="7"/>
+      <c r="BG2" s="7"/>
+      <c r="BH2" s="7"/>
+      <c r="BI2" s="7"/>
+      <c r="BJ2" s="7"/>
+      <c r="BK2" s="7"/>
+    </row>
+    <row r="3" spans="1:63" ht="30" customHeight="1">
+      <c r="A3" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="23"/>
+      <c r="T3" s="23"/>
+      <c r="U3" s="23"/>
+      <c r="V3" s="23"/>
+      <c r="W3" s="23"/>
+      <c r="X3" s="23"/>
+      <c r="Y3" s="23"/>
+      <c r="Z3" s="23"/>
+      <c r="AA3" s="23"/>
+      <c r="AB3" s="22"/>
+      <c r="AC3" s="22"/>
+      <c r="AD3" s="22"/>
+      <c r="AE3" s="22"/>
+      <c r="AF3" s="22"/>
+      <c r="AG3" s="22"/>
+      <c r="AH3" s="22"/>
+      <c r="AI3" s="4"/>
+      <c r="AJ3" s="4"/>
+      <c r="AK3" s="4"/>
+      <c r="AL3" s="4"/>
+      <c r="AM3" s="4"/>
+      <c r="AN3" s="4"/>
+      <c r="AO3" s="4"/>
+      <c r="AP3" s="4"/>
+      <c r="AQ3" s="4"/>
+      <c r="AR3" s="4"/>
+      <c r="AS3" s="4"/>
+      <c r="AT3" s="4"/>
+      <c r="AU3" s="4"/>
+      <c r="AV3" s="4"/>
+      <c r="AW3" s="4"/>
+      <c r="AX3" s="4"/>
+      <c r="AY3" s="4"/>
+      <c r="AZ3" s="4"/>
+      <c r="BA3" s="4"/>
+      <c r="BB3" s="4"/>
+      <c r="BC3" s="4"/>
+      <c r="BD3" s="4"/>
+      <c r="BE3" s="4"/>
+      <c r="BF3" s="4"/>
+      <c r="BG3" s="4"/>
+      <c r="BH3" s="4"/>
+      <c r="BI3" s="4"/>
+      <c r="BJ3" s="4"/>
+      <c r="BK3" s="4"/>
+    </row>
+    <row r="4" spans="1:63" ht="15.75" customHeight="1">
+      <c r="A4" s="21"/>
+      <c r="B4" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7"/>
+      <c r="AA4" s="7"/>
+      <c r="AB4" s="7"/>
+      <c r="AC4" s="7"/>
+      <c r="AD4" s="7"/>
+      <c r="AE4" s="7"/>
+      <c r="AF4" s="7"/>
+      <c r="AG4" s="7"/>
+      <c r="AH4" s="7"/>
+      <c r="AI4" s="7"/>
+      <c r="AJ4" s="7"/>
+      <c r="AK4" s="7"/>
+      <c r="AL4" s="7"/>
+      <c r="AM4" s="7"/>
+      <c r="AN4" s="7"/>
+      <c r="AO4" s="7"/>
+      <c r="AP4" s="7"/>
+      <c r="AQ4" s="7"/>
+      <c r="AR4" s="7"/>
+      <c r="AS4" s="7"/>
+      <c r="AT4" s="7"/>
+      <c r="AU4" s="7"/>
+      <c r="AV4" s="7"/>
+      <c r="AW4" s="7"/>
+      <c r="AX4" s="7"/>
+      <c r="AY4" s="7"/>
+      <c r="AZ4" s="7"/>
+      <c r="BA4" s="7"/>
+      <c r="BB4" s="7"/>
+      <c r="BC4" s="7"/>
+      <c r="BD4" s="7"/>
+      <c r="BE4" s="7"/>
+      <c r="BF4" s="7"/>
+      <c r="BG4" s="7"/>
+      <c r="BH4" s="7"/>
+      <c r="BI4" s="7"/>
+      <c r="BJ4" s="7"/>
+      <c r="BK4" s="7"/>
+    </row>
+    <row r="5" spans="1:63" ht="15.75" customHeight="1">
+      <c r="A5" s="20"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="7"/>
+      <c r="AC5" s="7"/>
+      <c r="AD5" s="7"/>
+      <c r="AE5" s="7"/>
+      <c r="AF5" s="7"/>
+      <c r="AG5" s="7"/>
+      <c r="AH5" s="7"/>
+      <c r="AI5" s="7"/>
+      <c r="AJ5" s="7"/>
+      <c r="AK5" s="7"/>
+      <c r="AL5" s="7"/>
+      <c r="AM5" s="7"/>
+      <c r="AN5" s="7"/>
+      <c r="AO5" s="7"/>
+      <c r="AP5" s="7"/>
+      <c r="AQ5" s="7"/>
+      <c r="AR5" s="7"/>
+      <c r="AS5" s="7"/>
+      <c r="AT5" s="7"/>
+      <c r="AU5" s="7"/>
+      <c r="AV5" s="7"/>
+      <c r="AW5" s="7"/>
+      <c r="AX5" s="7"/>
+      <c r="AY5" s="7"/>
+      <c r="AZ5" s="7"/>
+      <c r="BA5" s="7"/>
+      <c r="BB5" s="7"/>
+      <c r="BC5" s="7"/>
+      <c r="BD5" s="7"/>
+      <c r="BE5" s="7"/>
+      <c r="BF5" s="7"/>
+      <c r="BG5" s="7"/>
+      <c r="BH5" s="7"/>
+      <c r="BI5" s="7"/>
+      <c r="BJ5" s="7"/>
+      <c r="BK5" s="7"/>
+    </row>
+    <row r="6" spans="1:63" ht="15">
+      <c r="A6" s="18"/>
+      <c r="B6" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="S6" s="17"/>
+      <c r="T6" s="17"/>
+      <c r="U6" s="17"/>
+      <c r="V6" s="17"/>
+      <c r="W6" s="17"/>
+      <c r="X6" s="17"/>
+      <c r="Y6" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z6" s="17"/>
+      <c r="AA6" s="17"/>
+      <c r="AB6" s="17"/>
+      <c r="AC6" s="17"/>
+      <c r="AD6" s="17"/>
+      <c r="AE6" s="17"/>
+      <c r="AF6"/>
+      <c r="AG6"/>
+      <c r="AH6"/>
+      <c r="AI6"/>
+      <c r="AJ6"/>
+      <c r="AK6"/>
+      <c r="AL6"/>
+      <c r="AM6"/>
+      <c r="AN6"/>
+      <c r="AO6"/>
+      <c r="AP6"/>
+      <c r="AQ6"/>
+      <c r="AR6"/>
+      <c r="AS6"/>
+      <c r="AT6"/>
+      <c r="AU6"/>
+      <c r="AV6"/>
+      <c r="AW6"/>
+      <c r="AX6"/>
+      <c r="AY6"/>
+      <c r="AZ6"/>
+      <c r="BA6"/>
+      <c r="BB6"/>
+      <c r="BC6"/>
+      <c r="BD6"/>
+      <c r="BE6"/>
+      <c r="BF6"/>
+      <c r="BG6"/>
+      <c r="BH6"/>
+      <c r="BI6"/>
+      <c r="BJ6"/>
+      <c r="BK6"/>
+    </row>
+    <row r="7" spans="1:63" ht="15">
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="L7" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="M7" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="N7" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="O7" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="P7" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q7" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="R7" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="S7" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="T7" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="U7" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="V7" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="W7" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="X7" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y7" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z7" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA7" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB7" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC7" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD7"/>
+      <c r="AE7"/>
+      <c r="AF7"/>
+      <c r="AG7"/>
+      <c r="AH7"/>
+      <c r="AI7"/>
+      <c r="AJ7"/>
+      <c r="AK7"/>
+      <c r="AL7"/>
+      <c r="AM7"/>
+      <c r="AN7"/>
+      <c r="AO7"/>
+      <c r="AP7"/>
+      <c r="AQ7"/>
+      <c r="AR7"/>
+      <c r="AS7"/>
+      <c r="AT7"/>
+      <c r="AU7"/>
+      <c r="AV7"/>
+      <c r="AW7"/>
+      <c r="AX7"/>
+      <c r="AY7"/>
+      <c r="AZ7"/>
+      <c r="BA7"/>
+      <c r="BB7"/>
+      <c r="BC7"/>
+      <c r="BD7"/>
+      <c r="BE7"/>
+      <c r="BF7"/>
+      <c r="BG7"/>
+      <c r="BH7"/>
+      <c r="BI7"/>
+      <c r="BJ7"/>
+      <c r="BK7"/>
+    </row>
+    <row r="8" spans="1:63" ht="15">
+      <c r="A8" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="32"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33">
+        <v>8</v>
+      </c>
+      <c r="H8" s="31">
+        <v>9</v>
+      </c>
+      <c r="I8" s="33">
+        <v>10</v>
+      </c>
+      <c r="J8" s="31">
+        <v>11</v>
+      </c>
+      <c r="K8" s="33">
+        <v>12</v>
+      </c>
+      <c r="L8" s="31">
+        <v>13</v>
+      </c>
+      <c r="M8" s="33">
+        <v>14</v>
+      </c>
+      <c r="N8" s="31">
+        <v>15</v>
+      </c>
+      <c r="O8" s="33">
+        <v>16</v>
+      </c>
+      <c r="P8" s="31">
+        <v>17</v>
+      </c>
+      <c r="Q8" s="33">
+        <v>18</v>
+      </c>
+      <c r="R8" s="31">
+        <v>19</v>
+      </c>
+      <c r="S8" s="33">
+        <v>20</v>
+      </c>
+      <c r="T8" s="31">
+        <v>21</v>
+      </c>
+      <c r="U8" s="33">
+        <v>22</v>
+      </c>
+      <c r="V8" s="31">
+        <v>23</v>
+      </c>
+      <c r="W8" s="33">
+        <v>24</v>
+      </c>
+      <c r="X8" s="31">
+        <v>25</v>
+      </c>
+      <c r="Y8" s="33">
+        <v>26</v>
+      </c>
+      <c r="Z8" s="31">
+        <v>27</v>
+      </c>
+      <c r="AA8" s="33">
+        <v>28</v>
+      </c>
+      <c r="AB8" s="31">
+        <v>29</v>
+      </c>
+      <c r="AC8" s="33">
+        <v>30</v>
+      </c>
+      <c r="AD8"/>
+      <c r="AE8"/>
+      <c r="AF8"/>
+      <c r="AG8"/>
+      <c r="AH8"/>
+      <c r="AI8"/>
+      <c r="AJ8"/>
+      <c r="AK8"/>
+      <c r="AL8"/>
+      <c r="AM8"/>
+      <c r="AN8"/>
+      <c r="AO8"/>
+      <c r="AP8"/>
+      <c r="AQ8"/>
+      <c r="AR8"/>
+      <c r="AS8"/>
+      <c r="AT8"/>
+      <c r="AU8"/>
+      <c r="AV8"/>
+      <c r="AW8"/>
+      <c r="AX8"/>
+      <c r="AY8"/>
+      <c r="AZ8"/>
+      <c r="BA8"/>
+      <c r="BB8"/>
+      <c r="BC8"/>
+      <c r="BD8"/>
+      <c r="BE8"/>
+      <c r="BF8"/>
+      <c r="BG8"/>
+      <c r="BH8"/>
+      <c r="BI8"/>
+      <c r="BJ8"/>
+      <c r="BK8"/>
+    </row>
+    <row r="9" spans="1:63" ht="15">
+      <c r="B9" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8"/>
+      <c r="X9" s="13"/>
+      <c r="Y9" s="8"/>
+      <c r="Z9" s="8"/>
+      <c r="AA9" s="8"/>
+      <c r="AB9" s="8"/>
+      <c r="AC9" s="8"/>
+      <c r="AD9"/>
+      <c r="AE9"/>
+      <c r="AF9"/>
+      <c r="AG9"/>
+      <c r="AH9"/>
+      <c r="AI9"/>
+      <c r="AJ9"/>
+      <c r="AK9"/>
+      <c r="AL9"/>
+      <c r="AM9"/>
+      <c r="AN9"/>
+      <c r="AO9"/>
+      <c r="AP9"/>
+      <c r="AQ9"/>
+      <c r="AR9"/>
+      <c r="AS9"/>
+      <c r="AT9"/>
+      <c r="AU9"/>
+      <c r="AV9"/>
+      <c r="AW9"/>
+      <c r="AX9"/>
+      <c r="AY9"/>
+      <c r="AZ9"/>
+      <c r="BA9"/>
+      <c r="BB9"/>
+      <c r="BC9"/>
+      <c r="BD9"/>
+      <c r="BE9"/>
+      <c r="BF9"/>
+      <c r="BG9"/>
+      <c r="BH9"/>
+      <c r="BI9"/>
+      <c r="BJ9"/>
+      <c r="BK9"/>
+    </row>
+    <row r="10" spans="1:63" ht="15">
+      <c r="B10" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="8"/>
+      <c r="Z10" s="8"/>
+      <c r="AA10" s="8"/>
+      <c r="AB10" s="8"/>
+      <c r="AC10" s="8"/>
+      <c r="AD10"/>
+      <c r="AE10"/>
+      <c r="AF10"/>
+      <c r="AG10"/>
+      <c r="AH10"/>
+      <c r="AI10"/>
+      <c r="AJ10"/>
+      <c r="AK10"/>
+      <c r="AL10"/>
+      <c r="AM10"/>
+      <c r="AN10"/>
+      <c r="AO10"/>
+      <c r="AP10"/>
+      <c r="AQ10"/>
+      <c r="AR10"/>
+      <c r="AS10"/>
+      <c r="AT10"/>
+      <c r="AU10"/>
+      <c r="AV10"/>
+      <c r="AW10"/>
+      <c r="AX10"/>
+      <c r="AY10"/>
+      <c r="AZ10"/>
+      <c r="BA10"/>
+      <c r="BB10"/>
+      <c r="BC10"/>
+      <c r="BD10"/>
+      <c r="BE10"/>
+      <c r="BF10"/>
+      <c r="BG10"/>
+      <c r="BH10"/>
+      <c r="BI10"/>
+      <c r="BJ10"/>
+      <c r="BK10"/>
+    </row>
+    <row r="11" spans="1:63" ht="15">
+      <c r="B11" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="13"/>
+      <c r="X11" s="8"/>
+      <c r="Y11" s="8"/>
+      <c r="Z11" s="8"/>
+      <c r="AA11" s="8"/>
+      <c r="AB11" s="8"/>
+      <c r="AC11" s="8"/>
+      <c r="AD11"/>
+      <c r="AE11"/>
+      <c r="AF11"/>
+      <c r="AG11"/>
+      <c r="AH11"/>
+      <c r="AI11"/>
+      <c r="AJ11"/>
+      <c r="AK11"/>
+      <c r="AL11"/>
+      <c r="AM11"/>
+      <c r="AN11"/>
+      <c r="AO11"/>
+      <c r="AP11"/>
+      <c r="AQ11"/>
+      <c r="AR11"/>
+      <c r="AS11"/>
+      <c r="AT11"/>
+      <c r="AU11"/>
+      <c r="AV11"/>
+      <c r="AW11"/>
+      <c r="AX11"/>
+      <c r="AY11"/>
+      <c r="AZ11"/>
+      <c r="BA11"/>
+      <c r="BB11"/>
+      <c r="BC11"/>
+      <c r="BD11"/>
+      <c r="BE11"/>
+      <c r="BF11"/>
+      <c r="BG11"/>
+      <c r="BH11"/>
+      <c r="BI11"/>
+      <c r="BJ11"/>
+      <c r="BK11"/>
+    </row>
+    <row r="12" spans="1:63" ht="15">
+      <c r="B12" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="13"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="13"/>
+      <c r="X12" s="8"/>
+      <c r="Y12" s="8"/>
+      <c r="Z12" s="8"/>
+      <c r="AA12" s="8"/>
+      <c r="AB12" s="8"/>
+      <c r="AC12" s="8"/>
+      <c r="AD12"/>
+      <c r="AE12"/>
+      <c r="AF12"/>
+      <c r="AG12"/>
+      <c r="AH12"/>
+      <c r="AI12"/>
+      <c r="AJ12"/>
+      <c r="AK12"/>
+      <c r="AL12"/>
+      <c r="AM12"/>
+      <c r="AN12"/>
+      <c r="AO12"/>
+      <c r="AP12"/>
+      <c r="AQ12"/>
+      <c r="AR12"/>
+      <c r="AS12"/>
+      <c r="AT12"/>
+      <c r="AU12"/>
+      <c r="AV12"/>
+      <c r="AW12"/>
+      <c r="AX12"/>
+      <c r="AY12"/>
+      <c r="AZ12"/>
+      <c r="BA12"/>
+      <c r="BB12"/>
+      <c r="BC12"/>
+      <c r="BD12"/>
+      <c r="BE12"/>
+      <c r="BF12"/>
+      <c r="BG12"/>
+      <c r="BH12"/>
+      <c r="BI12"/>
+      <c r="BJ12"/>
+      <c r="BK12"/>
+    </row>
+    <row r="13" spans="1:63" ht="15">
+      <c r="B13" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="13"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="8"/>
+      <c r="X13" s="8"/>
+      <c r="Y13" s="8"/>
+      <c r="Z13" s="8"/>
+      <c r="AA13" s="8"/>
+      <c r="AB13" s="8"/>
+      <c r="AC13" s="8"/>
+      <c r="AD13"/>
+      <c r="AE13"/>
+      <c r="AF13"/>
+      <c r="AG13"/>
+      <c r="AH13"/>
+      <c r="AI13"/>
+      <c r="AJ13"/>
+      <c r="AK13"/>
+      <c r="AL13"/>
+      <c r="AM13"/>
+      <c r="AN13"/>
+      <c r="AO13"/>
+      <c r="AP13"/>
+      <c r="AQ13"/>
+      <c r="AR13"/>
+      <c r="AS13"/>
+      <c r="AT13"/>
+      <c r="AU13"/>
+      <c r="AV13"/>
+      <c r="AW13"/>
+      <c r="AX13"/>
+      <c r="AY13"/>
+      <c r="AZ13"/>
+      <c r="BA13"/>
+      <c r="BB13"/>
+      <c r="BC13"/>
+      <c r="BD13"/>
+      <c r="BE13"/>
+      <c r="BF13"/>
+      <c r="BG13"/>
+      <c r="BH13"/>
+      <c r="BI13"/>
+      <c r="BJ13"/>
+      <c r="BK13"/>
+    </row>
+    <row r="14" spans="1:63" ht="15">
+      <c r="B14" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="13"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="8"/>
+      <c r="X14" s="13"/>
+      <c r="Y14" s="8"/>
+      <c r="Z14" s="8"/>
+      <c r="AA14" s="8"/>
+      <c r="AB14" s="8"/>
+      <c r="AC14" s="8"/>
+      <c r="AD14"/>
+      <c r="AE14"/>
+      <c r="AF14"/>
+      <c r="AG14"/>
+      <c r="AH14"/>
+      <c r="AI14"/>
+      <c r="AJ14"/>
+      <c r="AK14"/>
+      <c r="AL14"/>
+      <c r="AM14"/>
+      <c r="AN14"/>
+      <c r="AO14"/>
+      <c r="AP14"/>
+      <c r="AQ14"/>
+      <c r="AR14"/>
+      <c r="AS14"/>
+      <c r="AT14"/>
+      <c r="AU14"/>
+      <c r="AV14"/>
+      <c r="AW14"/>
+      <c r="AX14"/>
+      <c r="AY14"/>
+      <c r="AZ14"/>
+      <c r="BA14"/>
+      <c r="BB14"/>
+      <c r="BC14"/>
+      <c r="BD14"/>
+      <c r="BE14"/>
+      <c r="BF14"/>
+      <c r="BG14"/>
+      <c r="BH14"/>
+      <c r="BI14"/>
+      <c r="BJ14"/>
+      <c r="BK14"/>
+    </row>
+    <row r="15" spans="1:63" ht="15">
+      <c r="B15" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="8"/>
+      <c r="X15" s="8"/>
+      <c r="Y15" s="8"/>
+      <c r="Z15" s="8"/>
+      <c r="AA15" s="8"/>
+      <c r="AB15" s="8"/>
+      <c r="AC15" s="8"/>
+      <c r="AD15"/>
+      <c r="AE15"/>
+      <c r="AF15"/>
+      <c r="AG15"/>
+      <c r="AH15"/>
+      <c r="AI15"/>
+      <c r="AJ15"/>
+      <c r="AK15"/>
+      <c r="AL15"/>
+      <c r="AM15"/>
+      <c r="AN15"/>
+      <c r="AO15"/>
+      <c r="AP15"/>
+      <c r="AQ15"/>
+      <c r="AR15"/>
+      <c r="AS15"/>
+      <c r="AT15"/>
+      <c r="AU15"/>
+      <c r="AV15"/>
+      <c r="AW15"/>
+      <c r="AX15"/>
+      <c r="AY15"/>
+      <c r="AZ15"/>
+      <c r="BA15"/>
+      <c r="BB15"/>
+      <c r="BC15"/>
+      <c r="BD15"/>
+      <c r="BE15"/>
+      <c r="BF15"/>
+      <c r="BG15"/>
+      <c r="BH15"/>
+      <c r="BI15"/>
+      <c r="BJ15"/>
+      <c r="BK15"/>
+    </row>
+    <row r="16" spans="1:63" ht="15">
+      <c r="B16" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="12"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8"/>
+      <c r="X16" s="8"/>
+      <c r="Y16" s="8"/>
+      <c r="Z16" s="8"/>
+      <c r="AA16" s="8"/>
+      <c r="AB16" s="8"/>
+      <c r="AC16" s="8"/>
+      <c r="AD16"/>
+      <c r="AE16"/>
+      <c r="AF16"/>
+      <c r="AG16"/>
+      <c r="AH16"/>
+      <c r="AI16"/>
+      <c r="AJ16"/>
+      <c r="AK16"/>
+      <c r="AL16"/>
+      <c r="AM16"/>
+      <c r="AN16"/>
+      <c r="AO16"/>
+      <c r="AP16"/>
+      <c r="AQ16"/>
+      <c r="AR16"/>
+      <c r="AS16"/>
+      <c r="AT16"/>
+      <c r="AU16"/>
+      <c r="AV16"/>
+      <c r="AW16"/>
+      <c r="AX16"/>
+      <c r="AY16"/>
+      <c r="AZ16"/>
+      <c r="BA16"/>
+      <c r="BB16"/>
+      <c r="BC16"/>
+      <c r="BD16"/>
+      <c r="BE16"/>
+      <c r="BF16"/>
+      <c r="BG16"/>
+      <c r="BH16"/>
+      <c r="BI16"/>
+      <c r="BJ16"/>
+      <c r="BK16"/>
+    </row>
+    <row r="17" spans="1:63" ht="15">
+      <c r="B17" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="12"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="13"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="8"/>
+      <c r="V17" s="8"/>
+      <c r="W17" s="8"/>
+      <c r="X17" s="8"/>
+      <c r="Y17" s="8"/>
+      <c r="Z17" s="8"/>
+      <c r="AA17" s="8"/>
+      <c r="AB17" s="8"/>
+      <c r="AC17" s="8"/>
+      <c r="AD17"/>
+      <c r="AE17"/>
+      <c r="AF17"/>
+      <c r="AG17"/>
+      <c r="AH17"/>
+      <c r="AI17"/>
+      <c r="AJ17"/>
+      <c r="AK17"/>
+      <c r="AL17"/>
+      <c r="AM17"/>
+      <c r="AN17"/>
+      <c r="AO17"/>
+      <c r="AP17"/>
+      <c r="AQ17"/>
+      <c r="AR17"/>
+      <c r="AS17"/>
+      <c r="AT17"/>
+      <c r="AU17"/>
+      <c r="AV17"/>
+      <c r="AW17"/>
+      <c r="AX17"/>
+      <c r="AY17"/>
+      <c r="AZ17"/>
+      <c r="BA17"/>
+      <c r="BB17"/>
+      <c r="BC17"/>
+      <c r="BD17"/>
+      <c r="BE17"/>
+      <c r="BF17"/>
+      <c r="BG17"/>
+      <c r="BH17"/>
+      <c r="BI17"/>
+      <c r="BJ17"/>
+      <c r="BK17"/>
+    </row>
+    <row r="18" spans="1:63" ht="15">
+      <c r="B18" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="12"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="8"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="8"/>
+      <c r="V18" s="8"/>
+      <c r="W18" s="8"/>
+      <c r="X18" s="13"/>
+      <c r="Y18" s="8"/>
+      <c r="Z18" s="8"/>
+      <c r="AA18" s="8"/>
+      <c r="AB18" s="8"/>
+      <c r="AC18" s="8"/>
+      <c r="AD18"/>
+      <c r="AE18"/>
+      <c r="AF18"/>
+      <c r="AG18"/>
+      <c r="AH18"/>
+      <c r="AI18"/>
+      <c r="AJ18"/>
+      <c r="AK18"/>
+      <c r="AL18"/>
+      <c r="AM18"/>
+      <c r="AN18"/>
+      <c r="AO18"/>
+      <c r="AP18"/>
+      <c r="AQ18"/>
+      <c r="AR18"/>
+      <c r="AS18"/>
+      <c r="AT18"/>
+      <c r="AU18"/>
+      <c r="AV18"/>
+      <c r="AW18"/>
+      <c r="AX18"/>
+      <c r="AY18"/>
+      <c r="AZ18"/>
+      <c r="BA18"/>
+      <c r="BB18"/>
+      <c r="BC18"/>
+      <c r="BD18"/>
+      <c r="BE18"/>
+      <c r="BF18"/>
+      <c r="BG18"/>
+      <c r="BH18"/>
+      <c r="BI18"/>
+      <c r="BJ18"/>
+      <c r="BK18"/>
+    </row>
+    <row r="19" spans="1:63" ht="15">
+      <c r="B19" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="12"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="8"/>
+      <c r="V19" s="8"/>
+      <c r="W19" s="8"/>
+      <c r="X19" s="13"/>
+      <c r="Y19" s="8"/>
+      <c r="Z19" s="8"/>
+      <c r="AA19" s="8"/>
+      <c r="AB19" s="8"/>
+      <c r="AC19" s="8"/>
+      <c r="AD19"/>
+      <c r="AE19"/>
+      <c r="AF19"/>
+      <c r="AG19"/>
+      <c r="AH19"/>
+      <c r="AI19"/>
+      <c r="AJ19"/>
+      <c r="AK19"/>
+      <c r="AL19"/>
+      <c r="AM19"/>
+      <c r="AN19"/>
+      <c r="AO19"/>
+      <c r="AP19"/>
+      <c r="AQ19"/>
+      <c r="AR19"/>
+      <c r="AS19"/>
+      <c r="AT19"/>
+      <c r="AU19"/>
+      <c r="AV19"/>
+      <c r="AW19"/>
+      <c r="AX19"/>
+      <c r="AY19"/>
+      <c r="AZ19"/>
+      <c r="BA19"/>
+      <c r="BB19"/>
+      <c r="BC19"/>
+      <c r="BD19"/>
+      <c r="BE19"/>
+      <c r="BF19"/>
+      <c r="BG19"/>
+      <c r="BH19"/>
+      <c r="BI19"/>
+      <c r="BJ19"/>
+      <c r="BK19"/>
+    </row>
+    <row r="20" spans="1:63" ht="15">
+      <c r="A20"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="8"/>
+      <c r="T20" s="8"/>
+      <c r="U20" s="8"/>
+      <c r="V20" s="8"/>
+      <c r="W20" s="8"/>
+      <c r="X20" s="8"/>
+      <c r="Y20" s="8"/>
+      <c r="Z20" s="8"/>
+      <c r="AA20" s="8"/>
+      <c r="AB20" s="8"/>
+      <c r="AC20" s="8"/>
+      <c r="AD20"/>
+      <c r="AE20"/>
+      <c r="AF20"/>
+      <c r="AG20"/>
+      <c r="AH20"/>
+      <c r="AI20"/>
+      <c r="AJ20"/>
+      <c r="AK20"/>
+      <c r="AL20"/>
+      <c r="AM20"/>
+      <c r="AN20"/>
+      <c r="AO20"/>
+      <c r="AP20"/>
+      <c r="AQ20"/>
+      <c r="AR20"/>
+      <c r="AS20"/>
+      <c r="AT20"/>
+      <c r="AU20"/>
+      <c r="AV20"/>
+      <c r="AW20"/>
+      <c r="AX20"/>
+      <c r="AY20"/>
+      <c r="AZ20"/>
+      <c r="BA20"/>
+      <c r="BB20"/>
+      <c r="BC20"/>
+      <c r="BD20"/>
+      <c r="BE20"/>
+      <c r="BF20"/>
+      <c r="BG20"/>
+      <c r="BH20"/>
+      <c r="BI20"/>
+      <c r="BJ20"/>
+      <c r="BK20"/>
+    </row>
+    <row r="21" spans="1:63" ht="15">
+      <c r="A21"/>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21"/>
+      <c r="N21"/>
+      <c r="O21"/>
+      <c r="P21"/>
+      <c r="Q21"/>
+      <c r="R21"/>
+      <c r="S21"/>
+      <c r="T21"/>
+      <c r="U21"/>
+      <c r="V21"/>
+      <c r="W21"/>
+      <c r="X21"/>
+      <c r="Y21"/>
+      <c r="Z21"/>
+      <c r="AA21"/>
+      <c r="AB21"/>
+      <c r="AC21"/>
+      <c r="AD21"/>
+      <c r="AE21"/>
+      <c r="AF21"/>
+      <c r="AG21"/>
+      <c r="AH21"/>
+      <c r="AI21"/>
+      <c r="AJ21"/>
+      <c r="AK21"/>
+      <c r="AL21"/>
+      <c r="AM21"/>
+      <c r="AN21"/>
+      <c r="AO21"/>
+      <c r="AP21"/>
+      <c r="AQ21"/>
+      <c r="AR21"/>
+      <c r="AS21"/>
+      <c r="AT21"/>
+      <c r="AU21"/>
+      <c r="AV21"/>
+      <c r="AW21"/>
+      <c r="AX21"/>
+      <c r="AY21"/>
+      <c r="AZ21"/>
+      <c r="BA21"/>
+      <c r="BB21"/>
+      <c r="BC21"/>
+      <c r="BD21"/>
+      <c r="BE21"/>
+      <c r="BF21"/>
+      <c r="BG21"/>
+      <c r="BH21"/>
+      <c r="BI21"/>
+      <c r="BJ21"/>
+      <c r="BK21"/>
+    </row>
+    <row r="22" spans="1:63" ht="15">
+      <c r="A22"/>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="M22"/>
+      <c r="N22"/>
+      <c r="O22"/>
+      <c r="P22"/>
+      <c r="Q22"/>
+      <c r="R22"/>
+      <c r="S22"/>
+      <c r="T22"/>
+      <c r="U22"/>
+      <c r="V22"/>
+      <c r="W22"/>
+      <c r="X22"/>
+      <c r="Y22"/>
+      <c r="Z22"/>
+      <c r="AA22"/>
+      <c r="AB22"/>
+      <c r="AC22"/>
+      <c r="AD22"/>
+      <c r="AE22"/>
+      <c r="AF22"/>
+      <c r="AG22"/>
+      <c r="AH22"/>
+      <c r="AI22"/>
+      <c r="AJ22"/>
+      <c r="AK22"/>
+      <c r="AL22"/>
+      <c r="AM22"/>
+      <c r="AN22"/>
+      <c r="AO22"/>
+      <c r="AP22"/>
+      <c r="AQ22"/>
+      <c r="AR22"/>
+      <c r="AS22"/>
+      <c r="AT22"/>
+      <c r="AU22"/>
+      <c r="AV22"/>
+      <c r="AW22"/>
+      <c r="AX22"/>
+      <c r="AY22"/>
+      <c r="AZ22"/>
+      <c r="BA22"/>
+      <c r="BB22"/>
+      <c r="BC22"/>
+      <c r="BD22"/>
+      <c r="BE22"/>
+      <c r="BF22"/>
+      <c r="BG22"/>
+      <c r="BH22"/>
+      <c r="BI22"/>
+      <c r="BJ22"/>
+      <c r="BK22"/>
+    </row>
+    <row r="23" spans="1:63" ht="15">
+      <c r="A23"/>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+      <c r="M23"/>
+      <c r="N23"/>
+      <c r="O23"/>
+      <c r="P23"/>
+      <c r="Q23"/>
+      <c r="R23"/>
+      <c r="S23"/>
+      <c r="T23"/>
+      <c r="U23"/>
+      <c r="V23"/>
+      <c r="W23"/>
+      <c r="X23"/>
+      <c r="Y23"/>
+      <c r="Z23"/>
+      <c r="AA23"/>
+      <c r="AB23"/>
+      <c r="AC23"/>
+      <c r="AD23"/>
+      <c r="AE23"/>
+      <c r="AF23"/>
+      <c r="AG23"/>
+      <c r="AH23"/>
+      <c r="AI23"/>
+      <c r="AJ23"/>
+      <c r="AK23"/>
+      <c r="AL23"/>
+      <c r="AM23"/>
+      <c r="AN23"/>
+      <c r="AO23"/>
+      <c r="AP23"/>
+      <c r="AQ23"/>
+      <c r="AR23"/>
+      <c r="AS23"/>
+      <c r="AT23"/>
+      <c r="AU23"/>
+      <c r="AV23"/>
+      <c r="AW23"/>
+      <c r="AX23"/>
+      <c r="AY23"/>
+      <c r="AZ23"/>
+      <c r="BA23"/>
+      <c r="BB23"/>
+      <c r="BC23"/>
+      <c r="BD23"/>
+      <c r="BE23"/>
+      <c r="BF23"/>
+      <c r="BG23"/>
+      <c r="BH23"/>
+      <c r="BI23"/>
+      <c r="BJ23"/>
+      <c r="BK23"/>
+    </row>
+    <row r="24" spans="1:63" ht="15">
+      <c r="A24"/>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24"/>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24"/>
+      <c r="M24"/>
+      <c r="N24"/>
+      <c r="O24"/>
+      <c r="P24"/>
+      <c r="Q24"/>
+      <c r="R24"/>
+      <c r="S24"/>
+      <c r="T24"/>
+      <c r="U24"/>
+      <c r="V24"/>
+      <c r="W24"/>
+      <c r="X24"/>
+      <c r="Y24"/>
+      <c r="Z24"/>
+      <c r="AA24"/>
+      <c r="AB24"/>
+      <c r="AC24"/>
+      <c r="AD24"/>
+      <c r="AE24"/>
+      <c r="AF24"/>
+      <c r="AG24"/>
+      <c r="AH24"/>
+      <c r="AI24"/>
+      <c r="AJ24"/>
+      <c r="AK24"/>
+      <c r="AL24"/>
+      <c r="AM24"/>
+      <c r="AN24"/>
+      <c r="AO24"/>
+      <c r="AP24"/>
+      <c r="AQ24"/>
+      <c r="AR24"/>
+      <c r="AS24"/>
+      <c r="AT24"/>
+      <c r="AU24"/>
+      <c r="AV24"/>
+      <c r="AW24"/>
+      <c r="AX24"/>
+      <c r="AY24"/>
+      <c r="AZ24"/>
+      <c r="BA24"/>
+      <c r="BB24"/>
+      <c r="BC24"/>
+      <c r="BD24"/>
+      <c r="BE24"/>
+      <c r="BF24"/>
+      <c r="BG24"/>
+      <c r="BH24"/>
+      <c r="BI24"/>
+      <c r="BJ24"/>
+      <c r="BK24"/>
+    </row>
+    <row r="25" spans="1:63" ht="15">
+      <c r="A25"/>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25"/>
+      <c r="J25"/>
+      <c r="K25"/>
+      <c r="L25"/>
+      <c r="M25"/>
+      <c r="N25"/>
+      <c r="O25"/>
+      <c r="P25"/>
+      <c r="Q25"/>
+      <c r="R25"/>
+      <c r="S25"/>
+      <c r="T25"/>
+      <c r="U25"/>
+      <c r="V25"/>
+      <c r="W25"/>
+      <c r="X25"/>
+      <c r="Y25"/>
+      <c r="Z25"/>
+      <c r="AA25"/>
+      <c r="AB25"/>
+      <c r="AC25"/>
+      <c r="AD25"/>
+      <c r="AE25"/>
+      <c r="AF25"/>
+      <c r="AG25"/>
+      <c r="AH25"/>
+      <c r="AI25"/>
+      <c r="AJ25"/>
+      <c r="AK25"/>
+      <c r="AL25"/>
+      <c r="AM25"/>
+      <c r="AN25"/>
+      <c r="AO25"/>
+      <c r="AP25"/>
+      <c r="AQ25"/>
+      <c r="AR25"/>
+      <c r="AS25"/>
+      <c r="AT25"/>
+      <c r="AU25"/>
+      <c r="AV25"/>
+      <c r="AW25"/>
+      <c r="AX25"/>
+      <c r="AY25"/>
+      <c r="AZ25"/>
+      <c r="BA25"/>
+      <c r="BB25"/>
+      <c r="BC25"/>
+      <c r="BD25"/>
+      <c r="BE25"/>
+      <c r="BF25"/>
+      <c r="BG25"/>
+      <c r="BH25"/>
+      <c r="BI25"/>
+      <c r="BJ25"/>
+      <c r="BK25"/>
+    </row>
+    <row r="26" spans="1:63" ht="15">
+      <c r="A26"/>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26"/>
+      <c r="M26"/>
+      <c r="N26"/>
+      <c r="O26"/>
+      <c r="P26"/>
+      <c r="Q26"/>
+      <c r="R26"/>
+      <c r="S26"/>
+      <c r="T26"/>
+      <c r="U26"/>
+      <c r="V26"/>
+      <c r="W26"/>
+      <c r="X26"/>
+      <c r="Y26"/>
+      <c r="Z26"/>
+      <c r="AA26"/>
+      <c r="AB26"/>
+      <c r="AC26"/>
+      <c r="AD26"/>
+      <c r="AE26"/>
+      <c r="AF26"/>
+      <c r="AG26"/>
+      <c r="AH26"/>
+      <c r="AI26"/>
+      <c r="AJ26"/>
+      <c r="AK26"/>
+      <c r="AL26"/>
+      <c r="AM26"/>
+      <c r="AN26"/>
+      <c r="AO26"/>
+      <c r="AP26"/>
+      <c r="AQ26"/>
+      <c r="AR26"/>
+      <c r="AS26"/>
+      <c r="AT26"/>
+      <c r="AU26"/>
+      <c r="AV26"/>
+      <c r="AW26"/>
+      <c r="AX26"/>
+      <c r="AY26"/>
+      <c r="AZ26"/>
+      <c r="BA26"/>
+      <c r="BB26"/>
+      <c r="BC26"/>
+      <c r="BD26"/>
+      <c r="BE26"/>
+      <c r="BF26"/>
+      <c r="BG26"/>
+      <c r="BH26"/>
+      <c r="BI26"/>
+      <c r="BJ26"/>
+      <c r="BK26"/>
+    </row>
+    <row r="27" spans="1:63" ht="15">
+      <c r="A27"/>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27"/>
+      <c r="L27"/>
+      <c r="M27"/>
+      <c r="N27"/>
+      <c r="O27"/>
+      <c r="P27"/>
+      <c r="Q27"/>
+      <c r="R27"/>
+      <c r="S27"/>
+      <c r="T27"/>
+      <c r="U27"/>
+      <c r="V27"/>
+      <c r="W27"/>
+      <c r="X27"/>
+      <c r="Y27"/>
+      <c r="Z27"/>
+      <c r="AA27"/>
+      <c r="AB27"/>
+      <c r="AC27"/>
+      <c r="AD27"/>
+      <c r="AE27"/>
+      <c r="AF27"/>
+      <c r="AG27"/>
+      <c r="AH27"/>
+      <c r="AI27"/>
+      <c r="AJ27"/>
+      <c r="AK27"/>
+      <c r="AL27"/>
+      <c r="AM27"/>
+      <c r="AN27"/>
+      <c r="AO27"/>
+      <c r="AP27"/>
+      <c r="AQ27"/>
+      <c r="AR27"/>
+      <c r="AS27"/>
+      <c r="AT27"/>
+      <c r="AU27"/>
+      <c r="AV27"/>
+      <c r="AW27"/>
+      <c r="AX27"/>
+      <c r="AY27"/>
+      <c r="AZ27"/>
+      <c r="BA27"/>
+      <c r="BB27"/>
+      <c r="BC27"/>
+      <c r="BD27"/>
+      <c r="BE27"/>
+      <c r="BF27"/>
+      <c r="BG27"/>
+      <c r="BH27"/>
+      <c r="BI27"/>
+      <c r="BJ27"/>
+      <c r="BK27"/>
+    </row>
+    <row r="28" spans="1:63" ht="15">
+      <c r="A28"/>
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28"/>
+      <c r="H28"/>
+      <c r="I28"/>
+      <c r="J28"/>
+      <c r="K28"/>
+      <c r="L28"/>
+      <c r="M28"/>
+      <c r="N28"/>
+      <c r="O28"/>
+      <c r="P28"/>
+      <c r="Q28"/>
+      <c r="R28"/>
+      <c r="S28"/>
+      <c r="T28"/>
+      <c r="U28"/>
+      <c r="V28"/>
+      <c r="W28"/>
+      <c r="X28"/>
+      <c r="Y28"/>
+      <c r="Z28"/>
+      <c r="AA28"/>
+      <c r="AB28"/>
+      <c r="AC28"/>
+      <c r="AD28"/>
+      <c r="AE28"/>
+      <c r="AF28"/>
+      <c r="AG28"/>
+      <c r="AH28"/>
+      <c r="AI28"/>
+      <c r="AJ28"/>
+      <c r="AK28"/>
+      <c r="AL28"/>
+      <c r="AM28"/>
+      <c r="AN28"/>
+      <c r="AO28"/>
+      <c r="AP28"/>
+      <c r="AQ28"/>
+      <c r="AR28"/>
+      <c r="AS28"/>
+      <c r="AT28"/>
+      <c r="AU28"/>
+      <c r="AV28"/>
+      <c r="AW28"/>
+      <c r="AX28"/>
+      <c r="AY28"/>
+      <c r="AZ28"/>
+      <c r="BA28"/>
+      <c r="BB28"/>
+      <c r="BC28"/>
+      <c r="BD28"/>
+      <c r="BE28"/>
+      <c r="BF28"/>
+      <c r="BG28"/>
+      <c r="BH28"/>
+      <c r="BI28"/>
+      <c r="BJ28"/>
+      <c r="BK28"/>
+    </row>
+    <row r="29" spans="1:63" ht="15">
+      <c r="A29"/>
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="G29"/>
+      <c r="H29"/>
+      <c r="I29"/>
+      <c r="J29"/>
+      <c r="K29"/>
+      <c r="L29"/>
+      <c r="M29"/>
+      <c r="N29"/>
+      <c r="O29"/>
+      <c r="P29"/>
+      <c r="Q29"/>
+      <c r="R29"/>
+      <c r="S29"/>
+      <c r="T29"/>
+      <c r="U29"/>
+      <c r="V29"/>
+      <c r="W29"/>
+      <c r="X29"/>
+      <c r="Y29"/>
+      <c r="Z29"/>
+      <c r="AA29"/>
+      <c r="AB29"/>
+      <c r="AC29"/>
+      <c r="AD29"/>
+      <c r="AE29"/>
+      <c r="AF29"/>
+      <c r="AG29"/>
+      <c r="AH29"/>
+      <c r="AI29"/>
+      <c r="AJ29"/>
+      <c r="AK29"/>
+      <c r="AL29"/>
+      <c r="AM29"/>
+      <c r="AN29"/>
+      <c r="AO29"/>
+      <c r="AP29"/>
+      <c r="AQ29"/>
+      <c r="AR29"/>
+      <c r="AS29"/>
+      <c r="AT29"/>
+      <c r="AU29"/>
+      <c r="AV29"/>
+      <c r="AW29"/>
+      <c r="AX29"/>
+      <c r="AY29"/>
+      <c r="AZ29"/>
+      <c r="BA29"/>
+      <c r="BB29"/>
+      <c r="BC29"/>
+      <c r="BD29"/>
+      <c r="BE29"/>
+      <c r="BF29"/>
+      <c r="BG29"/>
+      <c r="BH29"/>
+      <c r="BI29"/>
+      <c r="BJ29"/>
+      <c r="BK29"/>
+    </row>
+    <row r="30" spans="1:63" ht="15">
+      <c r="A30"/>
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="H30"/>
+      <c r="I30"/>
+      <c r="J30"/>
+      <c r="K30"/>
+      <c r="L30"/>
+      <c r="M30"/>
+      <c r="N30"/>
+      <c r="O30"/>
+      <c r="P30"/>
+      <c r="Q30"/>
+      <c r="R30"/>
+      <c r="S30"/>
+      <c r="T30"/>
+      <c r="U30"/>
+      <c r="V30"/>
+      <c r="W30"/>
+      <c r="X30"/>
+      <c r="Y30"/>
+      <c r="Z30"/>
+      <c r="AA30"/>
+      <c r="AB30"/>
+      <c r="AC30"/>
+      <c r="AD30"/>
+      <c r="AE30"/>
+      <c r="AF30"/>
+      <c r="AG30"/>
+      <c r="AH30"/>
+      <c r="AI30"/>
+      <c r="AJ30"/>
+      <c r="AK30"/>
+      <c r="AL30"/>
+      <c r="AM30"/>
+      <c r="AN30"/>
+      <c r="AO30"/>
+      <c r="AP30"/>
+      <c r="AQ30"/>
+      <c r="AR30"/>
+      <c r="AS30"/>
+      <c r="AT30"/>
+      <c r="AU30"/>
+      <c r="AV30"/>
+      <c r="AW30"/>
+      <c r="AX30"/>
+      <c r="AY30"/>
+      <c r="AZ30"/>
+      <c r="BA30"/>
+      <c r="BB30"/>
+      <c r="BC30"/>
+      <c r="BD30"/>
+      <c r="BE30"/>
+      <c r="BF30"/>
+      <c r="BG30"/>
+      <c r="BH30"/>
+      <c r="BI30"/>
+      <c r="BJ30"/>
+      <c r="BK30"/>
+    </row>
+    <row r="31" spans="1:63" ht="15">
+      <c r="A31"/>
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31"/>
+      <c r="H31"/>
+      <c r="I31"/>
+      <c r="J31"/>
+      <c r="K31"/>
+      <c r="L31"/>
+      <c r="M31"/>
+      <c r="N31"/>
+      <c r="O31"/>
+      <c r="P31"/>
+      <c r="Q31"/>
+      <c r="R31"/>
+      <c r="S31"/>
+      <c r="T31"/>
+      <c r="U31"/>
+      <c r="V31"/>
+      <c r="W31"/>
+      <c r="X31"/>
+      <c r="Y31"/>
+      <c r="Z31"/>
+      <c r="AA31"/>
+      <c r="AB31"/>
+      <c r="AC31"/>
+      <c r="AD31"/>
+      <c r="AE31"/>
+      <c r="AF31"/>
+      <c r="AG31"/>
+      <c r="AH31"/>
+      <c r="AI31"/>
+      <c r="AJ31"/>
+      <c r="AK31"/>
+      <c r="AL31"/>
+      <c r="AM31"/>
+      <c r="AN31"/>
+      <c r="AO31"/>
+      <c r="AP31"/>
+      <c r="AQ31"/>
+      <c r="AR31"/>
+      <c r="AS31"/>
+      <c r="AT31"/>
+      <c r="AU31"/>
+      <c r="AV31"/>
+      <c r="AW31"/>
+      <c r="AX31"/>
+      <c r="AY31"/>
+      <c r="AZ31"/>
+      <c r="BA31"/>
+      <c r="BB31"/>
+      <c r="BC31"/>
+      <c r="BD31"/>
+      <c r="BE31"/>
+      <c r="BF31"/>
+      <c r="BG31"/>
+      <c r="BH31"/>
+      <c r="BI31"/>
+      <c r="BJ31"/>
+      <c r="BK31"/>
+    </row>
+    <row r="32" spans="1:63" ht="15.75" customHeight="1">
+      <c r="A32" s="6"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A33" s="6"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A34" s="6"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A35" s="6"/>
+    </row>
+    <row r="36" spans="1:3" ht="12.75">
+      <c r="A36" s="6"/>
+    </row>
+    <row r="37" spans="1:3" ht="12.75">
+      <c r="A37" s="6"/>
+    </row>
+    <row r="38" spans="1:3" ht="12.75">
+      <c r="A38" s="6"/>
+    </row>
+    <row r="39" spans="1:3" ht="12.75">
+      <c r="A39" s="6"/>
+    </row>
+    <row r="40" spans="1:3" ht="12.75">
+      <c r="A40" s="6"/>
+    </row>
+    <row r="41" spans="1:3" ht="12.75">
+      <c r="A41" s="6"/>
+    </row>
+    <row r="42" spans="1:3" ht="12.75">
+      <c r="A42" s="6"/>
+    </row>
+    <row r="43" spans="1:3" ht="12.75">
+      <c r="A43" s="6"/>
+    </row>
+    <row r="44" spans="1:3" ht="12.75">
+      <c r="A44" s="6"/>
+    </row>
+    <row r="45" spans="1:3" ht="12.75">
+      <c r="A45" s="6"/>
+    </row>
+    <row r="46" spans="1:3" ht="12.75">
+      <c r="A46" s="6"/>
+    </row>
+    <row r="47" spans="1:3" ht="12.75">
+      <c r="A47" s="6"/>
+    </row>
+    <row r="48" spans="1:3" ht="12.75">
+      <c r="A48" s="6"/>
+    </row>
+    <row r="49" spans="1:1" ht="12.75">
+      <c r="A49" s="6"/>
+    </row>
+    <row r="50" spans="1:1" ht="12.75">
+      <c r="A50" s="6"/>
+    </row>
+    <row r="51" spans="1:1" ht="12.75">
+      <c r="A51" s="6"/>
+    </row>
+    <row r="52" spans="1:1" ht="12.75">
+      <c r="A52" s="6"/>
+    </row>
+    <row r="53" spans="1:1" ht="12.75">
+      <c r="A53" s="6"/>
+    </row>
+    <row r="54" spans="1:1" ht="12.75">
+      <c r="A54" s="6"/>
+    </row>
+    <row r="55" spans="1:1" ht="12.75">
+      <c r="A55" s="6"/>
+    </row>
+    <row r="56" spans="1:1" ht="12.75">
+      <c r="A56" s="6"/>
+    </row>
+    <row r="57" spans="1:1" ht="12.75">
+      <c r="A57" s="6"/>
+    </row>
+    <row r="58" spans="1:1" ht="12.75">
+      <c r="A58" s="6"/>
+    </row>
+    <row r="59" spans="1:1" ht="12.75">
+      <c r="A59" s="6"/>
+    </row>
+    <row r="60" spans="1:1" ht="12.75">
+      <c r="A60" s="6"/>
+    </row>
+    <row r="61" spans="1:1" ht="12.75">
+      <c r="A61" s="6"/>
+    </row>
+    <row r="62" spans="1:1" ht="12.75">
+      <c r="A62" s="6"/>
+    </row>
+    <row r="63" spans="1:1" ht="12.75">
+      <c r="A63" s="6"/>
+    </row>
+    <row r="64" spans="1:1" ht="12.75">
+      <c r="A64" s="6"/>
+    </row>
+    <row r="65" spans="1:1" ht="12.75">
+      <c r="A65" s="6"/>
+    </row>
+    <row r="66" spans="1:1" ht="12.75">
+      <c r="A66" s="6"/>
+    </row>
+    <row r="67" spans="1:1" ht="12.75">
+      <c r="A67" s="6"/>
+    </row>
+    <row r="68" spans="1:1" ht="12.75">
+      <c r="A68" s="6"/>
+    </row>
+    <row r="69" spans="1:1" ht="12.75">
+      <c r="A69" s="6"/>
+    </row>
+    <row r="70" spans="1:1" ht="12.75">
+      <c r="A70" s="6"/>
+    </row>
+    <row r="71" spans="1:1" ht="12.75">
+      <c r="A71" s="6"/>
+    </row>
+    <row r="72" spans="1:1" ht="12.75">
+      <c r="A72" s="6"/>
+    </row>
+    <row r="73" spans="1:1" ht="12.75">
+      <c r="A73" s="6"/>
+    </row>
+    <row r="74" spans="1:1" ht="12.75">
+      <c r="A74" s="6"/>
+    </row>
+    <row r="75" spans="1:1" ht="12.75">
+      <c r="A75" s="6"/>
+    </row>
+    <row r="76" spans="1:1" ht="12.75">
+      <c r="A76" s="6"/>
+    </row>
+    <row r="77" spans="1:1" ht="12.75">
+      <c r="A77" s="6"/>
+    </row>
+    <row r="78" spans="1:1" ht="12.75">
+      <c r="A78" s="6"/>
+    </row>
+    <row r="79" spans="1:1" ht="12.75">
+      <c r="A79" s="6"/>
+    </row>
+    <row r="80" spans="1:1" ht="12.75">
+      <c r="A80" s="6"/>
+    </row>
+    <row r="81" spans="1:1" ht="12.75">
+      <c r="A81" s="6"/>
+    </row>
+    <row r="82" spans="1:1" ht="12.75">
+      <c r="A82" s="6"/>
+    </row>
+    <row r="83" spans="1:1" ht="12.75">
+      <c r="A83" s="6"/>
+    </row>
+    <row r="84" spans="1:1" ht="12.75">
+      <c r="A84" s="6"/>
+    </row>
+    <row r="85" spans="1:1" ht="12.75">
+      <c r="A85" s="6"/>
+    </row>
+    <row r="86" spans="1:1" ht="12.75">
+      <c r="A86" s="6"/>
+    </row>
+    <row r="87" spans="1:1" ht="12.75">
+      <c r="A87" s="6"/>
+    </row>
+    <row r="88" spans="1:1" ht="12.75">
+      <c r="A88" s="6"/>
+    </row>
+    <row r="89" spans="1:1" ht="12.75">
+      <c r="A89" s="6"/>
+    </row>
+    <row r="90" spans="1:1" ht="12.75">
+      <c r="A90" s="6"/>
+    </row>
+    <row r="91" spans="1:1" ht="12.75">
+      <c r="A91" s="6"/>
+    </row>
+    <row r="92" spans="1:1" ht="12.75">
+      <c r="A92" s="6"/>
+    </row>
+    <row r="93" spans="1:1" ht="12.75">
+      <c r="A93" s="6"/>
+    </row>
+    <row r="94" spans="1:1" ht="12.75">
+      <c r="A94" s="6"/>
+    </row>
+    <row r="95" spans="1:1" ht="12.75">
+      <c r="A95" s="6"/>
+    </row>
+    <row r="96" spans="1:1" ht="12.75">
+      <c r="A96" s="6"/>
+    </row>
+    <row r="97" spans="1:1" ht="12.75">
+      <c r="A97" s="6"/>
+    </row>
+    <row r="98" spans="1:1" ht="12.75">
+      <c r="A98" s="6"/>
+    </row>
+    <row r="99" spans="1:1" ht="12.75">
+      <c r="A99" s="6"/>
+    </row>
+    <row r="100" spans="1:1" ht="12.75">
+      <c r="A100" s="6"/>
+    </row>
+    <row r="101" spans="1:1" ht="12.75">
+      <c r="A101" s="6"/>
+    </row>
+    <row r="102" spans="1:1" ht="12.75">
+      <c r="A102" s="6"/>
+    </row>
+    <row r="103" spans="1:1" ht="12.75">
+      <c r="A103" s="6"/>
+    </row>
+    <row r="104" spans="1:1" ht="12.75">
+      <c r="A104" s="6"/>
+    </row>
+    <row r="105" spans="1:1" ht="12.75">
+      <c r="A105" s="6"/>
+    </row>
+    <row r="106" spans="1:1" ht="12.75">
+      <c r="A106" s="6"/>
+    </row>
+    <row r="107" spans="1:1" ht="12.75">
+      <c r="A107" s="6"/>
+    </row>
+    <row r="108" spans="1:1" ht="12.75">
+      <c r="A108" s="6"/>
+    </row>
+    <row r="109" spans="1:1" ht="12.75">
+      <c r="A109" s="6"/>
+    </row>
+    <row r="110" spans="1:1" ht="12.75">
+      <c r="A110" s="6"/>
+    </row>
+    <row r="111" spans="1:1" ht="12.75">
+      <c r="A111" s="6"/>
+    </row>
+    <row r="112" spans="1:1" ht="12.75">
+      <c r="A112" s="6"/>
+    </row>
+    <row r="113" spans="1:1" ht="12.75">
+      <c r="A113" s="6"/>
+    </row>
+    <row r="114" spans="1:1" ht="12.75">
+      <c r="A114" s="6"/>
+    </row>
+    <row r="115" spans="1:1" ht="12.75">
+      <c r="A115" s="6"/>
+    </row>
+    <row r="116" spans="1:1" ht="12.75">
+      <c r="A116" s="6"/>
+    </row>
+    <row r="117" spans="1:1" ht="12.75">
+      <c r="A117" s="6"/>
+    </row>
+    <row r="118" spans="1:1" ht="12.75">
+      <c r="A118" s="6"/>
+    </row>
+    <row r="119" spans="1:1" ht="12.75">
+      <c r="A119" s="6"/>
+    </row>
+    <row r="120" spans="1:1" ht="12.75">
+      <c r="A120" s="6"/>
+    </row>
+    <row r="121" spans="1:1" ht="12.75">
+      <c r="A121" s="6"/>
+    </row>
+    <row r="122" spans="1:1" ht="12.75">
+      <c r="A122" s="6"/>
+    </row>
+    <row r="123" spans="1:1" ht="12.75">
+      <c r="A123" s="6"/>
+    </row>
+    <row r="124" spans="1:1" ht="12.75">
+      <c r="A124" s="6"/>
+    </row>
+    <row r="125" spans="1:1" ht="12.75">
+      <c r="A125" s="6"/>
+    </row>
+    <row r="126" spans="1:1" ht="12.75">
+      <c r="A126" s="6"/>
+    </row>
+    <row r="127" spans="1:1" ht="12.75">
+      <c r="A127" s="6"/>
+    </row>
+    <row r="128" spans="1:1" ht="12.75">
+      <c r="A128" s="6"/>
+    </row>
+    <row r="129" spans="1:1" ht="12.75">
+      <c r="A129" s="6"/>
+    </row>
+    <row r="130" spans="1:1" ht="12.75">
+      <c r="A130" s="6"/>
+    </row>
+    <row r="131" spans="1:1" ht="12.75">
+      <c r="A131" s="6"/>
+    </row>
+    <row r="132" spans="1:1" ht="12.75">
+      <c r="A132" s="6"/>
+    </row>
+    <row r="133" spans="1:1" ht="12.75">
+      <c r="A133" s="6"/>
+    </row>
+    <row r="134" spans="1:1" ht="12.75">
+      <c r="A134" s="6"/>
+    </row>
+    <row r="135" spans="1:1" ht="12.75">
+      <c r="A135" s="6"/>
+    </row>
+    <row r="136" spans="1:1" ht="12.75">
+      <c r="A136" s="6"/>
+    </row>
+    <row r="137" spans="1:1" ht="12.75">
+      <c r="A137" s="6"/>
+    </row>
+    <row r="138" spans="1:1" ht="12.75">
+      <c r="A138" s="6"/>
+    </row>
+    <row r="139" spans="1:1" ht="12.75">
+      <c r="A139" s="6"/>
+    </row>
+    <row r="140" spans="1:1" ht="12.75">
+      <c r="A140" s="6"/>
+    </row>
+    <row r="141" spans="1:1" ht="12.75">
+      <c r="A141" s="6"/>
+    </row>
+    <row r="142" spans="1:1" ht="12.75">
+      <c r="A142" s="6"/>
+    </row>
+    <row r="143" spans="1:1" ht="12.75">
+      <c r="A143" s="6"/>
+    </row>
+    <row r="144" spans="1:1" ht="12.75">
+      <c r="A144" s="6"/>
+    </row>
+    <row r="145" spans="1:1" ht="12.75">
+      <c r="A145" s="6"/>
+    </row>
+    <row r="146" spans="1:1" ht="12.75">
+      <c r="A146" s="6"/>
+    </row>
+    <row r="147" spans="1:1" ht="12.75">
+      <c r="A147" s="6"/>
+    </row>
+    <row r="148" spans="1:1" ht="12.75">
+      <c r="A148" s="6"/>
+    </row>
+    <row r="149" spans="1:1" ht="12.75">
+      <c r="A149" s="6"/>
+    </row>
+    <row r="150" spans="1:1" ht="12.75">
+      <c r="A150" s="6"/>
+    </row>
+    <row r="151" spans="1:1" ht="12.75">
+      <c r="A151" s="6"/>
+    </row>
+    <row r="152" spans="1:1" ht="12.75">
+      <c r="A152" s="6"/>
+    </row>
+    <row r="153" spans="1:1" ht="12.75">
+      <c r="A153" s="6"/>
+    </row>
+    <row r="154" spans="1:1" ht="12.75">
+      <c r="A154" s="6"/>
+    </row>
+    <row r="155" spans="1:1" ht="12.75">
+      <c r="A155" s="6"/>
+    </row>
+    <row r="156" spans="1:1" ht="12.75">
+      <c r="A156" s="6"/>
+    </row>
+    <row r="157" spans="1:1" ht="12.75">
+      <c r="A157" s="6"/>
+    </row>
+    <row r="158" spans="1:1" ht="12.75">
+      <c r="A158" s="6"/>
+    </row>
+    <row r="159" spans="1:1" ht="12.75">
+      <c r="A159" s="6"/>
+    </row>
+    <row r="160" spans="1:1" ht="12.75">
+      <c r="A160" s="6"/>
+    </row>
+    <row r="161" spans="1:1" ht="12.75">
+      <c r="A161" s="6"/>
+    </row>
+    <row r="162" spans="1:1" ht="12.75">
+      <c r="A162" s="6"/>
+    </row>
+    <row r="163" spans="1:1" ht="12.75">
+      <c r="A163" s="6"/>
+    </row>
+    <row r="164" spans="1:1" ht="12.75">
+      <c r="A164" s="6"/>
+    </row>
+    <row r="165" spans="1:1" ht="12.75">
+      <c r="A165" s="6"/>
+    </row>
+    <row r="166" spans="1:1" ht="12.75">
+      <c r="A166" s="6"/>
+    </row>
+    <row r="167" spans="1:1" ht="12.75">
+      <c r="A167" s="6"/>
+    </row>
+    <row r="168" spans="1:1" ht="12.75">
+      <c r="A168" s="6"/>
+    </row>
+    <row r="169" spans="1:1" ht="12.75">
+      <c r="A169" s="6"/>
+    </row>
+    <row r="170" spans="1:1" ht="12.75">
+      <c r="A170" s="6"/>
+    </row>
+    <row r="171" spans="1:1" ht="12.75">
+      <c r="A171" s="6"/>
+    </row>
+    <row r="172" spans="1:1" ht="12.75">
+      <c r="A172" s="6"/>
+    </row>
+    <row r="173" spans="1:1" ht="12.75">
+      <c r="A173" s="6"/>
+    </row>
+    <row r="174" spans="1:1" ht="12.75">
+      <c r="A174" s="6"/>
+    </row>
+    <row r="175" spans="1:1" ht="12.75">
+      <c r="A175" s="6"/>
+    </row>
+    <row r="176" spans="1:1" ht="12.75">
+      <c r="A176" s="6"/>
+    </row>
+    <row r="177" spans="1:1" ht="12.75">
+      <c r="A177" s="6"/>
+    </row>
+    <row r="178" spans="1:1" ht="12.75">
+      <c r="A178" s="6"/>
+    </row>
+    <row r="179" spans="1:1" ht="12.75">
+      <c r="A179" s="6"/>
+    </row>
+    <row r="180" spans="1:1" ht="12.75">
+      <c r="A180" s="6"/>
+    </row>
+    <row r="181" spans="1:1" ht="12.75">
+      <c r="A181" s="6"/>
+    </row>
+    <row r="182" spans="1:1" ht="12.75">
+      <c r="A182" s="6"/>
+    </row>
+    <row r="183" spans="1:1" ht="12.75">
+      <c r="A183" s="6"/>
+    </row>
+    <row r="184" spans="1:1" ht="12.75">
+      <c r="A184" s="6"/>
+    </row>
+    <row r="185" spans="1:1" ht="12.75">
+      <c r="A185" s="6"/>
+    </row>
+    <row r="186" spans="1:1" ht="12.75">
+      <c r="A186" s="6"/>
+    </row>
+    <row r="187" spans="1:1" ht="12.75">
+      <c r="A187" s="6"/>
+    </row>
+    <row r="188" spans="1:1" ht="12.75">
+      <c r="A188" s="6"/>
+    </row>
+    <row r="189" spans="1:1" ht="12.75">
+      <c r="A189" s="6"/>
+    </row>
+    <row r="190" spans="1:1" ht="12.75">
+      <c r="A190" s="6"/>
+    </row>
+    <row r="191" spans="1:1" ht="12.75">
+      <c r="A191" s="6"/>
+    </row>
+    <row r="192" spans="1:1" ht="12.75">
+      <c r="A192" s="6"/>
+    </row>
+    <row r="193" spans="1:1" ht="12.75">
+      <c r="A193" s="6"/>
+    </row>
+    <row r="194" spans="1:1" ht="12.75">
+      <c r="A194" s="6"/>
+    </row>
+    <row r="195" spans="1:1" ht="12.75">
+      <c r="A195" s="6"/>
+    </row>
+    <row r="196" spans="1:1" ht="12.75">
+      <c r="A196" s="6"/>
+    </row>
+    <row r="197" spans="1:1" ht="12.75">
+      <c r="A197" s="6"/>
+    </row>
+    <row r="198" spans="1:1" ht="12.75">
+      <c r="A198" s="6"/>
+    </row>
+    <row r="199" spans="1:1" ht="12.75">
+      <c r="A199" s="6"/>
+    </row>
+    <row r="200" spans="1:1" ht="12.75">
+      <c r="A200" s="6"/>
+    </row>
+    <row r="201" spans="1:1" ht="12.75">
+      <c r="A201" s="6"/>
+    </row>
+    <row r="202" spans="1:1" ht="12.75">
+      <c r="A202" s="6"/>
+    </row>
+    <row r="203" spans="1:1" ht="12.75">
+      <c r="A203" s="6"/>
+    </row>
+    <row r="204" spans="1:1" ht="12.75">
+      <c r="A204" s="6"/>
+    </row>
+    <row r="205" spans="1:1" ht="12.75">
+      <c r="A205" s="6"/>
+    </row>
+    <row r="206" spans="1:1" ht="12.75">
+      <c r="A206" s="6"/>
+    </row>
+    <row r="207" spans="1:1" ht="12.75">
+      <c r="A207" s="6"/>
+    </row>
+    <row r="208" spans="1:1" ht="12.75">
+      <c r="A208" s="6"/>
+    </row>
+    <row r="209" spans="1:1" ht="12.75">
+      <c r="A209" s="6"/>
+    </row>
+    <row r="210" spans="1:1" ht="12.75">
+      <c r="A210" s="6"/>
+    </row>
+    <row r="211" spans="1:1" ht="12.75">
+      <c r="A211" s="6"/>
+    </row>
+    <row r="212" spans="1:1" ht="12.75">
+      <c r="A212" s="6"/>
+    </row>
+    <row r="213" spans="1:1" ht="12.75">
+      <c r="A213" s="6"/>
+    </row>
+    <row r="214" spans="1:1" ht="12.75">
+      <c r="A214" s="6"/>
+    </row>
+    <row r="215" spans="1:1" ht="12.75">
+      <c r="A215" s="6"/>
+    </row>
+    <row r="216" spans="1:1" ht="12.75">
+      <c r="A216" s="6"/>
+    </row>
+    <row r="217" spans="1:1" ht="12.75">
+      <c r="A217" s="6"/>
+    </row>
+    <row r="218" spans="1:1" ht="12.75">
+      <c r="A218" s="6"/>
+    </row>
+    <row r="219" spans="1:1" ht="12.75">
+      <c r="A219" s="6"/>
+    </row>
+    <row r="220" spans="1:1" ht="12.75">
+      <c r="A220" s="6"/>
+    </row>
+    <row r="221" spans="1:1" ht="12.75">
+      <c r="A221" s="6"/>
+    </row>
+    <row r="222" spans="1:1" ht="12.75">
+      <c r="A222" s="6"/>
+    </row>
+    <row r="223" spans="1:1" ht="12.75">
+      <c r="A223" s="6"/>
+    </row>
+    <row r="224" spans="1:1" ht="12.75">
+      <c r="A224" s="6"/>
+    </row>
+    <row r="225" spans="1:1" ht="12.75">
+      <c r="A225" s="6"/>
+    </row>
+    <row r="226" spans="1:1" ht="12.75">
+      <c r="A226" s="6"/>
+    </row>
+    <row r="227" spans="1:1" ht="12.75">
+      <c r="A227" s="6"/>
+    </row>
+    <row r="228" spans="1:1" ht="12.75">
+      <c r="A228" s="6"/>
+    </row>
+    <row r="229" spans="1:1" ht="12.75">
+      <c r="A229" s="6"/>
+    </row>
+    <row r="230" spans="1:1" ht="12.75">
+      <c r="A230" s="6"/>
+    </row>
+    <row r="231" spans="1:1" ht="12.75">
+      <c r="A231" s="6"/>
+    </row>
+    <row r="232" spans="1:1" ht="12.75">
+      <c r="A232" s="6"/>
+    </row>
+    <row r="233" spans="1:1" ht="12.75">
+      <c r="A233" s="6"/>
+    </row>
+    <row r="234" spans="1:1" ht="12.75">
+      <c r="A234" s="6"/>
+    </row>
+    <row r="235" spans="1:1" ht="12.75">
+      <c r="A235" s="6"/>
+    </row>
+    <row r="236" spans="1:1" ht="12.75">
+      <c r="A236" s="6"/>
+    </row>
+    <row r="237" spans="1:1" ht="12.75">
+      <c r="A237" s="6"/>
+    </row>
+    <row r="238" spans="1:1" ht="12.75">
+      <c r="A238" s="6"/>
+    </row>
+    <row r="239" spans="1:1" ht="12.75">
+      <c r="A239" s="6"/>
+    </row>
+    <row r="240" spans="1:1" ht="12.75">
+      <c r="A240" s="6"/>
+    </row>
+    <row r="241" spans="1:1" ht="12.75">
+      <c r="A241" s="6"/>
+    </row>
+    <row r="242" spans="1:1" ht="12.75">
+      <c r="A242" s="6"/>
+    </row>
+    <row r="243" spans="1:1" ht="12.75">
+      <c r="A243" s="6"/>
+    </row>
+    <row r="244" spans="1:1" ht="12.75">
+      <c r="A244" s="6"/>
+    </row>
+    <row r="245" spans="1:1" ht="12.75">
+      <c r="A245" s="6"/>
+    </row>
+    <row r="246" spans="1:1" ht="12.75">
+      <c r="A246" s="6"/>
+    </row>
+    <row r="247" spans="1:1" ht="12.75">
+      <c r="A247" s="6"/>
+    </row>
+    <row r="248" spans="1:1" ht="12.75">
+      <c r="A248" s="6"/>
+    </row>
+    <row r="249" spans="1:1" ht="12.75">
+      <c r="A249" s="6"/>
+    </row>
+    <row r="250" spans="1:1" ht="12.75">
+      <c r="A250" s="6"/>
+    </row>
+    <row r="251" spans="1:1" ht="12.75">
+      <c r="A251" s="6"/>
+    </row>
+    <row r="252" spans="1:1" ht="12.75">
+      <c r="A252" s="6"/>
+    </row>
+    <row r="253" spans="1:1" ht="12.75">
+      <c r="A253" s="6"/>
+    </row>
+    <row r="254" spans="1:1" ht="12.75">
+      <c r="A254" s="6"/>
+    </row>
+    <row r="255" spans="1:1" ht="12.75">
+      <c r="A255" s="6"/>
+    </row>
+    <row r="256" spans="1:1" ht="12.75">
+      <c r="A256" s="6"/>
+    </row>
+    <row r="257" spans="1:1" ht="12.75">
+      <c r="A257" s="6"/>
+    </row>
+    <row r="258" spans="1:1" ht="12.75">
+      <c r="A258" s="6"/>
+    </row>
+    <row r="259" spans="1:1" ht="12.75">
+      <c r="A259" s="6"/>
+    </row>
+    <row r="260" spans="1:1" ht="12.75">
+      <c r="A260" s="6"/>
+    </row>
+    <row r="261" spans="1:1" ht="12.75">
+      <c r="A261" s="6"/>
+    </row>
+    <row r="262" spans="1:1" ht="12.75">
+      <c r="A262" s="6"/>
+    </row>
+    <row r="263" spans="1:1" ht="12.75">
+      <c r="A263" s="6"/>
+    </row>
+    <row r="264" spans="1:1" ht="12.75">
+      <c r="A264" s="6"/>
+    </row>
+    <row r="265" spans="1:1" ht="12.75">
+      <c r="A265" s="6"/>
+    </row>
+    <row r="266" spans="1:1" ht="12.75">
+      <c r="A266" s="6"/>
+    </row>
+    <row r="267" spans="1:1" ht="12.75">
+      <c r="A267" s="6"/>
+    </row>
+    <row r="268" spans="1:1" ht="12.75">
+      <c r="A268" s="6"/>
+    </row>
+    <row r="269" spans="1:1" ht="12.75">
+      <c r="A269" s="6"/>
+    </row>
+    <row r="270" spans="1:1" ht="12.75">
+      <c r="A270" s="6"/>
+    </row>
+    <row r="271" spans="1:1" ht="12.75">
+      <c r="A271" s="6"/>
+    </row>
+    <row r="272" spans="1:1" ht="12.75">
+      <c r="A272" s="6"/>
+    </row>
+    <row r="273" spans="1:1" ht="12.75">
+      <c r="A273" s="6"/>
+    </row>
+    <row r="274" spans="1:1" ht="12.75">
+      <c r="A274" s="6"/>
+    </row>
+    <row r="275" spans="1:1" ht="12.75">
+      <c r="A275" s="6"/>
+    </row>
+    <row r="276" spans="1:1" ht="12.75">
+      <c r="A276" s="6"/>
+    </row>
+    <row r="277" spans="1:1" ht="12.75">
+      <c r="A277" s="6"/>
+    </row>
+    <row r="278" spans="1:1" ht="12.75">
+      <c r="A278" s="6"/>
+    </row>
+    <row r="279" spans="1:1" ht="12.75">
+      <c r="A279" s="6"/>
+    </row>
+    <row r="280" spans="1:1" ht="12.75">
+      <c r="A280" s="6"/>
+    </row>
+    <row r="281" spans="1:1" ht="12.75">
+      <c r="A281" s="6"/>
+    </row>
+    <row r="282" spans="1:1" ht="12.75">
+      <c r="A282" s="6"/>
+    </row>
+    <row r="283" spans="1:1" ht="12.75">
+      <c r="A283" s="6"/>
+    </row>
+    <row r="284" spans="1:1" ht="12.75">
+      <c r="A284" s="6"/>
+    </row>
+    <row r="285" spans="1:1" ht="12.75">
+      <c r="A285" s="6"/>
+    </row>
+    <row r="286" spans="1:1" ht="12.75">
+      <c r="A286" s="6"/>
+    </row>
+    <row r="287" spans="1:1" ht="12.75">
+      <c r="A287" s="6"/>
+    </row>
+    <row r="288" spans="1:1" ht="12.75">
+      <c r="A288" s="6"/>
+    </row>
+    <row r="289" spans="1:1" ht="12.75">
+      <c r="A289" s="6"/>
+    </row>
+    <row r="290" spans="1:1" ht="12.75">
+      <c r="A290" s="6"/>
+    </row>
+    <row r="291" spans="1:1" ht="12.75">
+      <c r="A291" s="6"/>
+    </row>
+    <row r="292" spans="1:1" ht="12.75">
+      <c r="A292" s="6"/>
+    </row>
+    <row r="293" spans="1:1" ht="12.75">
+      <c r="A293" s="6"/>
+    </row>
+    <row r="294" spans="1:1" ht="12.75">
+      <c r="A294" s="6"/>
+    </row>
+    <row r="295" spans="1:1" ht="12.75">
+      <c r="A295" s="6"/>
+    </row>
+    <row r="296" spans="1:1" ht="12.75">
+      <c r="A296" s="6"/>
+    </row>
+    <row r="297" spans="1:1" ht="12.75">
+      <c r="A297" s="6"/>
+    </row>
+    <row r="298" spans="1:1" ht="12.75">
+      <c r="A298" s="6"/>
+    </row>
+    <row r="299" spans="1:1" ht="12.75">
+      <c r="A299" s="6"/>
+    </row>
+    <row r="300" spans="1:1" ht="12.75">
+      <c r="A300" s="6"/>
+    </row>
+    <row r="301" spans="1:1" ht="12.75">
+      <c r="A301" s="6"/>
+    </row>
+    <row r="302" spans="1:1" ht="12.75">
+      <c r="A302" s="6"/>
+    </row>
+    <row r="303" spans="1:1" ht="12.75">
+      <c r="A303" s="6"/>
+    </row>
+    <row r="304" spans="1:1" ht="12.75">
+      <c r="A304" s="6"/>
+    </row>
+    <row r="305" spans="1:1" ht="12.75">
+      <c r="A305" s="6"/>
+    </row>
+    <row r="306" spans="1:1" ht="12.75">
+      <c r="A306" s="6"/>
+    </row>
+    <row r="307" spans="1:1" ht="12.75">
+      <c r="A307" s="6"/>
+    </row>
+    <row r="308" spans="1:1" ht="12.75">
+      <c r="A308" s="6"/>
+    </row>
+    <row r="309" spans="1:1" ht="12.75">
+      <c r="A309" s="6"/>
+    </row>
+    <row r="310" spans="1:1" ht="12.75">
+      <c r="A310" s="6"/>
+    </row>
+    <row r="311" spans="1:1" ht="12.75">
+      <c r="A311" s="6"/>
+    </row>
+    <row r="312" spans="1:1" ht="12.75">
+      <c r="A312" s="6"/>
+    </row>
+    <row r="313" spans="1:1" ht="12.75">
+      <c r="A313" s="6"/>
+    </row>
+    <row r="314" spans="1:1" ht="12.75">
+      <c r="A314" s="6"/>
+    </row>
+    <row r="315" spans="1:1" ht="12.75">
+      <c r="A315" s="6"/>
+    </row>
+    <row r="316" spans="1:1" ht="12.75">
+      <c r="A316" s="6"/>
+    </row>
+    <row r="317" spans="1:1" ht="12.75">
+      <c r="A317" s="6"/>
+    </row>
+    <row r="318" spans="1:1" ht="12.75">
+      <c r="A318" s="6"/>
+    </row>
+    <row r="319" spans="1:1" ht="12.75">
+      <c r="A319" s="6"/>
+    </row>
+    <row r="320" spans="1:1" ht="12.75">
+      <c r="A320" s="6"/>
+    </row>
+    <row r="321" spans="1:1" ht="12.75">
+      <c r="A321" s="6"/>
+    </row>
+    <row r="322" spans="1:1" ht="12.75">
+      <c r="A322" s="6"/>
+    </row>
+    <row r="323" spans="1:1" ht="12.75">
+      <c r="A323" s="6"/>
+    </row>
+    <row r="324" spans="1:1" ht="12.75">
+      <c r="A324" s="6"/>
+    </row>
+    <row r="325" spans="1:1" ht="12.75">
+      <c r="A325" s="6"/>
+    </row>
+    <row r="326" spans="1:1" ht="12.75">
+      <c r="A326" s="6"/>
+    </row>
+    <row r="327" spans="1:1" ht="12.75">
+      <c r="A327" s="6"/>
+    </row>
+    <row r="328" spans="1:1" ht="12.75">
+      <c r="A328" s="6"/>
+    </row>
+    <row r="329" spans="1:1" ht="12.75">
+      <c r="A329" s="6"/>
+    </row>
+    <row r="330" spans="1:1" ht="12.75">
+      <c r="A330" s="6"/>
+    </row>
+    <row r="331" spans="1:1" ht="12.75">
+      <c r="A331" s="6"/>
+    </row>
+    <row r="332" spans="1:1" ht="12.75">
+      <c r="A332" s="6"/>
+    </row>
+    <row r="333" spans="1:1" ht="12.75">
+      <c r="A333" s="6"/>
+    </row>
+    <row r="334" spans="1:1" ht="12.75">
+      <c r="A334" s="6"/>
+    </row>
+    <row r="335" spans="1:1" ht="12.75">
+      <c r="A335" s="6"/>
+    </row>
+    <row r="336" spans="1:1" ht="12.75">
+      <c r="A336" s="6"/>
+    </row>
+    <row r="337" spans="1:1" ht="12.75">
+      <c r="A337" s="6"/>
+    </row>
+    <row r="338" spans="1:1" ht="12.75">
+      <c r="A338" s="6"/>
+    </row>
+    <row r="339" spans="1:1" ht="12.75">
+      <c r="A339" s="6"/>
+    </row>
+    <row r="340" spans="1:1" ht="12.75">
+      <c r="A340" s="6"/>
+    </row>
+    <row r="341" spans="1:1" ht="12.75">
+      <c r="A341" s="6"/>
+    </row>
+    <row r="342" spans="1:1" ht="12.75">
+      <c r="A342" s="6"/>
+    </row>
+    <row r="343" spans="1:1" ht="12.75">
+      <c r="A343" s="6"/>
+    </row>
+    <row r="344" spans="1:1" ht="12.75">
+      <c r="A344" s="6"/>
+    </row>
+    <row r="345" spans="1:1" ht="12.75">
+      <c r="A345" s="6"/>
+    </row>
+    <row r="346" spans="1:1" ht="12.75">
+      <c r="A346" s="6"/>
+    </row>
+    <row r="347" spans="1:1" ht="12.75">
+      <c r="A347" s="6"/>
+    </row>
+    <row r="348" spans="1:1" ht="12.75">
+      <c r="A348" s="6"/>
+    </row>
+    <row r="349" spans="1:1" ht="12.75">
+      <c r="A349" s="6"/>
+    </row>
+    <row r="350" spans="1:1" ht="12.75">
+      <c r="A350" s="6"/>
+    </row>
+    <row r="351" spans="1:1" ht="12.75">
+      <c r="A351" s="6"/>
+    </row>
+    <row r="352" spans="1:1" ht="12.75">
+      <c r="A352" s="6"/>
+    </row>
+    <row r="353" spans="1:1" ht="12.75">
+      <c r="A353" s="6"/>
+    </row>
+    <row r="354" spans="1:1" ht="12.75">
+      <c r="A354" s="6"/>
+    </row>
+    <row r="355" spans="1:1" ht="12.75">
+      <c r="A355" s="6"/>
+    </row>
+    <row r="356" spans="1:1" ht="12.75">
+      <c r="A356" s="6"/>
+    </row>
+    <row r="357" spans="1:1" ht="12.75">
+      <c r="A357" s="6"/>
+    </row>
+    <row r="358" spans="1:1" ht="12.75">
+      <c r="A358" s="6"/>
+    </row>
+    <row r="359" spans="1:1" ht="12.75">
+      <c r="A359" s="6"/>
+    </row>
+    <row r="360" spans="1:1" ht="12.75">
+      <c r="A360" s="6"/>
+    </row>
+    <row r="361" spans="1:1" ht="12.75">
+      <c r="A361" s="6"/>
+    </row>
+    <row r="362" spans="1:1" ht="12.75">
+      <c r="A362" s="6"/>
+    </row>
+    <row r="363" spans="1:1" ht="12.75">
+      <c r="A363" s="6"/>
+    </row>
+    <row r="364" spans="1:1" ht="12.75">
+      <c r="A364" s="6"/>
+    </row>
+    <row r="365" spans="1:1" ht="12.75">
+      <c r="A365" s="6"/>
+    </row>
+    <row r="366" spans="1:1" ht="12.75">
+      <c r="A366" s="6"/>
+    </row>
+    <row r="367" spans="1:1" ht="12.75">
+      <c r="A367" s="6"/>
+    </row>
+    <row r="368" spans="1:1" ht="12.75">
+      <c r="A368" s="6"/>
+    </row>
+    <row r="369" spans="1:1" ht="12.75">
+      <c r="A369" s="6"/>
+    </row>
+    <row r="370" spans="1:1" ht="12.75">
+      <c r="A370" s="6"/>
+    </row>
+    <row r="371" spans="1:1" ht="12.75">
+      <c r="A371" s="6"/>
+    </row>
+    <row r="372" spans="1:1" ht="12.75">
+      <c r="A372" s="6"/>
+    </row>
+    <row r="373" spans="1:1" ht="12.75">
+      <c r="A373" s="6"/>
+    </row>
+    <row r="374" spans="1:1" ht="12.75">
+      <c r="A374" s="6"/>
+    </row>
+    <row r="375" spans="1:1" ht="12.75">
+      <c r="A375" s="6"/>
+    </row>
+    <row r="376" spans="1:1" ht="12.75">
+      <c r="A376" s="6"/>
+    </row>
+    <row r="377" spans="1:1" ht="12.75">
+      <c r="A377" s="6"/>
+    </row>
+    <row r="378" spans="1:1" ht="12.75">
+      <c r="A378" s="6"/>
+    </row>
+    <row r="379" spans="1:1" ht="12.75">
+      <c r="A379" s="6"/>
+    </row>
+    <row r="380" spans="1:1" ht="12.75">
+      <c r="A380" s="6"/>
+    </row>
+    <row r="381" spans="1:1" ht="12.75">
+      <c r="A381" s="6"/>
+    </row>
+    <row r="382" spans="1:1" ht="12.75">
+      <c r="A382" s="6"/>
+    </row>
+    <row r="383" spans="1:1" ht="12.75">
+      <c r="A383" s="6"/>
+    </row>
+    <row r="384" spans="1:1" ht="12.75">
+      <c r="A384" s="6"/>
+    </row>
+    <row r="385" spans="1:1" ht="12.75">
+      <c r="A385" s="6"/>
+    </row>
+    <row r="386" spans="1:1" ht="12.75">
+      <c r="A386" s="6"/>
+    </row>
+    <row r="387" spans="1:1" ht="12.75">
+      <c r="A387" s="6"/>
+    </row>
+    <row r="388" spans="1:1" ht="12.75">
+      <c r="A388" s="6"/>
+    </row>
+    <row r="389" spans="1:1" ht="12.75">
+      <c r="A389" s="6"/>
+    </row>
+    <row r="390" spans="1:1" ht="12.75">
+      <c r="A390" s="6"/>
+    </row>
+    <row r="391" spans="1:1" ht="12.75">
+      <c r="A391" s="6"/>
+    </row>
+    <row r="392" spans="1:1" ht="12.75">
+      <c r="A392" s="6"/>
+    </row>
+    <row r="393" spans="1:1" ht="12.75">
+      <c r="A393" s="6"/>
+    </row>
+    <row r="394" spans="1:1" ht="12.75">
+      <c r="A394" s="6"/>
+    </row>
+    <row r="395" spans="1:1" ht="12.75">
+      <c r="A395" s="6"/>
+    </row>
+    <row r="396" spans="1:1" ht="12.75">
+      <c r="A396" s="6"/>
+    </row>
+    <row r="397" spans="1:1" ht="12.75">
+      <c r="A397" s="6"/>
+    </row>
+    <row r="398" spans="1:1" ht="12.75">
+      <c r="A398" s="6"/>
+    </row>
+    <row r="399" spans="1:1" ht="12.75">
+      <c r="A399" s="6"/>
+    </row>
+    <row r="400" spans="1:1" ht="12.75">
+      <c r="A400" s="6"/>
+    </row>
+    <row r="401" spans="1:1" ht="12.75">
+      <c r="A401" s="6"/>
+    </row>
+    <row r="402" spans="1:1" ht="12.75">
+      <c r="A402" s="6"/>
+    </row>
+    <row r="403" spans="1:1" ht="12.75">
+      <c r="A403" s="6"/>
+    </row>
+    <row r="404" spans="1:1" ht="12.75">
+      <c r="A404" s="6"/>
+    </row>
+    <row r="405" spans="1:1" ht="12.75">
+      <c r="A405" s="6"/>
+    </row>
+    <row r="406" spans="1:1" ht="12.75">
+      <c r="A406" s="6"/>
+    </row>
+    <row r="407" spans="1:1" ht="12.75">
+      <c r="A407" s="6"/>
+    </row>
+    <row r="408" spans="1:1" ht="12.75">
+      <c r="A408" s="6"/>
+    </row>
+    <row r="409" spans="1:1" ht="12.75">
+      <c r="A409" s="6"/>
+    </row>
+    <row r="410" spans="1:1" ht="12.75">
+      <c r="A410" s="6"/>
+    </row>
+    <row r="411" spans="1:1" ht="12.75">
+      <c r="A411" s="6"/>
+    </row>
+    <row r="412" spans="1:1" ht="12.75">
+      <c r="A412" s="6"/>
+    </row>
+    <row r="413" spans="1:1" ht="12.75">
+      <c r="A413" s="6"/>
+    </row>
+    <row r="414" spans="1:1" ht="12.75">
+      <c r="A414" s="6"/>
+    </row>
+    <row r="415" spans="1:1" ht="12.75">
+      <c r="A415" s="6"/>
+    </row>
+    <row r="416" spans="1:1" ht="12.75">
+      <c r="A416" s="6"/>
+    </row>
+    <row r="417" spans="1:1" ht="12.75">
+      <c r="A417" s="6"/>
+    </row>
+    <row r="418" spans="1:1" ht="12.75">
+      <c r="A418" s="6"/>
+    </row>
+    <row r="419" spans="1:1" ht="12.75">
+      <c r="A419" s="6"/>
+    </row>
+    <row r="420" spans="1:1" ht="12.75">
+      <c r="A420" s="6"/>
+    </row>
+    <row r="421" spans="1:1" ht="12.75">
+      <c r="A421" s="6"/>
+    </row>
+    <row r="422" spans="1:1" ht="12.75">
+      <c r="A422" s="6"/>
+    </row>
+    <row r="423" spans="1:1" ht="12.75">
+      <c r="A423" s="6"/>
+    </row>
+    <row r="424" spans="1:1" ht="12.75">
+      <c r="A424" s="6"/>
+    </row>
+    <row r="425" spans="1:1" ht="12.75">
+      <c r="A425" s="6"/>
+    </row>
+    <row r="426" spans="1:1" ht="12.75">
+      <c r="A426" s="6"/>
+    </row>
+    <row r="427" spans="1:1" ht="12.75">
+      <c r="A427" s="6"/>
+    </row>
+    <row r="428" spans="1:1" ht="12.75">
+      <c r="A428" s="6"/>
+    </row>
+    <row r="429" spans="1:1" ht="12.75">
+      <c r="A429" s="6"/>
+    </row>
+    <row r="430" spans="1:1" ht="12.75">
+      <c r="A430" s="6"/>
+    </row>
+    <row r="431" spans="1:1" ht="12.75">
+      <c r="A431" s="6"/>
+    </row>
+    <row r="432" spans="1:1" ht="12.75">
+      <c r="A432" s="6"/>
+    </row>
+    <row r="433" spans="1:1" ht="12.75">
+      <c r="A433" s="6"/>
+    </row>
+    <row r="434" spans="1:1" ht="12.75">
+      <c r="A434" s="6"/>
+    </row>
+    <row r="435" spans="1:1" ht="12.75">
+      <c r="A435" s="6"/>
+    </row>
+    <row r="436" spans="1:1" ht="12.75">
+      <c r="A436" s="6"/>
+    </row>
+    <row r="437" spans="1:1" ht="12.75">
+      <c r="A437" s="6"/>
+    </row>
+    <row r="438" spans="1:1" ht="12.75">
+      <c r="A438" s="6"/>
+    </row>
+    <row r="439" spans="1:1" ht="12.75">
+      <c r="A439" s="6"/>
+    </row>
+    <row r="440" spans="1:1" ht="12.75">
+      <c r="A440" s="6"/>
+    </row>
+    <row r="441" spans="1:1" ht="12.75">
+      <c r="A441" s="6"/>
+    </row>
+    <row r="442" spans="1:1" ht="12.75">
+      <c r="A442" s="6"/>
+    </row>
+    <row r="443" spans="1:1" ht="12.75">
+      <c r="A443" s="6"/>
+    </row>
+    <row r="444" spans="1:1" ht="12.75">
+      <c r="A444" s="6"/>
+    </row>
+    <row r="445" spans="1:1" ht="12.75">
+      <c r="A445" s="6"/>
+    </row>
+    <row r="446" spans="1:1" ht="12.75">
+      <c r="A446" s="6"/>
+    </row>
+    <row r="447" spans="1:1" ht="12.75">
+      <c r="A447" s="6"/>
+    </row>
+    <row r="448" spans="1:1" ht="12.75">
+      <c r="A448" s="6"/>
+    </row>
+    <row r="449" spans="1:1" ht="12.75">
+      <c r="A449" s="6"/>
+    </row>
+    <row r="450" spans="1:1" ht="12.75">
+      <c r="A450" s="6"/>
+    </row>
+    <row r="451" spans="1:1" ht="12.75">
+      <c r="A451" s="6"/>
+    </row>
+    <row r="452" spans="1:1" ht="12.75">
+      <c r="A452" s="6"/>
+    </row>
+    <row r="453" spans="1:1" ht="12.75">
+      <c r="A453" s="6"/>
+    </row>
+    <row r="454" spans="1:1" ht="12.75">
+      <c r="A454" s="6"/>
+    </row>
+    <row r="455" spans="1:1" ht="12.75">
+      <c r="A455" s="6"/>
+    </row>
+    <row r="456" spans="1:1" ht="12.75">
+      <c r="A456" s="6"/>
+    </row>
+    <row r="457" spans="1:1" ht="12.75">
+      <c r="A457" s="6"/>
+    </row>
+    <row r="458" spans="1:1" ht="12.75">
+      <c r="A458" s="6"/>
+    </row>
+    <row r="459" spans="1:1" ht="12.75">
+      <c r="A459" s="6"/>
+    </row>
+    <row r="460" spans="1:1" ht="12.75">
+      <c r="A460" s="6"/>
+    </row>
+    <row r="461" spans="1:1" ht="12.75">
+      <c r="A461" s="6"/>
+    </row>
+    <row r="462" spans="1:1" ht="12.75">
+      <c r="A462" s="6"/>
+    </row>
+    <row r="463" spans="1:1" ht="12.75">
+      <c r="A463" s="6"/>
+    </row>
+    <row r="464" spans="1:1" ht="12.75">
+      <c r="A464" s="6"/>
+    </row>
+    <row r="465" spans="1:1" ht="12.75">
+      <c r="A465" s="6"/>
+    </row>
+    <row r="466" spans="1:1" ht="12.75">
+      <c r="A466" s="6"/>
+    </row>
+    <row r="467" spans="1:1" ht="12.75">
+      <c r="A467" s="6"/>
+    </row>
+    <row r="468" spans="1:1" ht="12.75">
+      <c r="A468" s="6"/>
+    </row>
+    <row r="469" spans="1:1" ht="12.75">
+      <c r="A469" s="6"/>
+    </row>
+    <row r="470" spans="1:1" ht="12.75">
+      <c r="A470" s="6"/>
+    </row>
+    <row r="471" spans="1:1" ht="12.75">
+      <c r="A471" s="6"/>
+    </row>
+    <row r="472" spans="1:1" ht="12.75">
+      <c r="A472" s="6"/>
+    </row>
+    <row r="473" spans="1:1" ht="12.75">
+      <c r="A473" s="6"/>
+    </row>
+    <row r="474" spans="1:1" ht="12.75">
+      <c r="A474" s="6"/>
+    </row>
+    <row r="475" spans="1:1" ht="12.75">
+      <c r="A475" s="6"/>
+    </row>
+    <row r="476" spans="1:1" ht="12.75">
+      <c r="A476" s="6"/>
+    </row>
+    <row r="477" spans="1:1" ht="12.75">
+      <c r="A477" s="6"/>
+    </row>
+    <row r="478" spans="1:1" ht="12.75">
+      <c r="A478" s="6"/>
+    </row>
+    <row r="479" spans="1:1" ht="12.75">
+      <c r="A479" s="6"/>
+    </row>
+    <row r="480" spans="1:1" ht="12.75">
+      <c r="A480" s="6"/>
+    </row>
+    <row r="481" spans="1:1" ht="12.75">
+      <c r="A481" s="6"/>
+    </row>
+    <row r="482" spans="1:1" ht="12.75">
+      <c r="A482" s="6"/>
+    </row>
+    <row r="483" spans="1:1" ht="12.75">
+      <c r="A483" s="6"/>
+    </row>
+    <row r="484" spans="1:1" ht="12.75">
+      <c r="A484" s="6"/>
+    </row>
+    <row r="485" spans="1:1" ht="12.75">
+      <c r="A485" s="6"/>
+    </row>
+    <row r="486" spans="1:1" ht="12.75">
+      <c r="A486" s="6"/>
+    </row>
+    <row r="487" spans="1:1" ht="12.75">
+      <c r="A487" s="6"/>
+    </row>
+    <row r="488" spans="1:1" ht="12.75">
+      <c r="A488" s="6"/>
+    </row>
+    <row r="489" spans="1:1" ht="12.75">
+      <c r="A489" s="6"/>
+    </row>
+    <row r="490" spans="1:1" ht="12.75">
+      <c r="A490" s="6"/>
+    </row>
+    <row r="491" spans="1:1" ht="12.75">
+      <c r="A491" s="6"/>
+    </row>
+    <row r="492" spans="1:1" ht="12.75">
+      <c r="A492" s="6"/>
+    </row>
+    <row r="493" spans="1:1" ht="12.75">
+      <c r="A493" s="6"/>
+    </row>
+    <row r="494" spans="1:1" ht="12.75">
+      <c r="A494" s="6"/>
+    </row>
+    <row r="495" spans="1:1" ht="12.75">
+      <c r="A495" s="6"/>
+    </row>
+    <row r="496" spans="1:1" ht="12.75">
+      <c r="A496" s="6"/>
+    </row>
+    <row r="497" spans="1:1" ht="12.75">
+      <c r="A497" s="6"/>
+    </row>
+    <row r="498" spans="1:1" ht="12.75">
+      <c r="A498" s="6"/>
+    </row>
+    <row r="499" spans="1:1" ht="12.75">
+      <c r="A499" s="6"/>
+    </row>
+    <row r="500" spans="1:1" ht="12.75">
+      <c r="A500" s="6"/>
+    </row>
+    <row r="501" spans="1:1" ht="12.75">
+      <c r="A501" s="6"/>
+    </row>
+    <row r="502" spans="1:1" ht="12.75">
+      <c r="A502" s="6"/>
+    </row>
+    <row r="503" spans="1:1" ht="12.75">
+      <c r="A503" s="6"/>
+    </row>
+    <row r="504" spans="1:1" ht="12.75">
+      <c r="A504" s="6"/>
+    </row>
+    <row r="505" spans="1:1" ht="12.75">
+      <c r="A505" s="6"/>
+    </row>
+    <row r="506" spans="1:1" ht="12.75">
+      <c r="A506" s="6"/>
+    </row>
+    <row r="507" spans="1:1" ht="12.75">
+      <c r="A507" s="6"/>
+    </row>
+    <row r="508" spans="1:1" ht="12.75">
+      <c r="A508" s="6"/>
+    </row>
+    <row r="509" spans="1:1" ht="12.75">
+      <c r="A509" s="6"/>
+    </row>
+    <row r="510" spans="1:1" ht="12.75">
+      <c r="A510" s="6"/>
+    </row>
+    <row r="511" spans="1:1" ht="12.75">
+      <c r="A511" s="6"/>
+    </row>
+    <row r="512" spans="1:1" ht="12.75">
+      <c r="A512" s="6"/>
+    </row>
+    <row r="513" spans="1:1" ht="12.75">
+      <c r="A513" s="6"/>
+    </row>
+    <row r="514" spans="1:1" ht="12.75">
+      <c r="A514" s="6"/>
+    </row>
+    <row r="515" spans="1:1" ht="12.75">
+      <c r="A515" s="6"/>
+    </row>
+    <row r="516" spans="1:1" ht="12.75">
+      <c r="A516" s="6"/>
+    </row>
+    <row r="517" spans="1:1" ht="12.75">
+      <c r="A517" s="6"/>
+    </row>
+    <row r="518" spans="1:1" ht="12.75">
+      <c r="A518" s="6"/>
+    </row>
+    <row r="519" spans="1:1" ht="12.75">
+      <c r="A519" s="6"/>
+    </row>
+    <row r="520" spans="1:1" ht="12.75">
+      <c r="A520" s="6"/>
+    </row>
+    <row r="521" spans="1:1" ht="12.75">
+      <c r="A521" s="6"/>
+    </row>
+    <row r="522" spans="1:1" ht="12.75">
+      <c r="A522" s="6"/>
+    </row>
+    <row r="523" spans="1:1" ht="12.75">
+      <c r="A523" s="6"/>
+    </row>
+    <row r="524" spans="1:1" ht="12.75">
+      <c r="A524" s="6"/>
+    </row>
+    <row r="525" spans="1:1" ht="12.75">
+      <c r="A525" s="6"/>
+    </row>
+    <row r="526" spans="1:1" ht="12.75">
+      <c r="A526" s="6"/>
+    </row>
+    <row r="527" spans="1:1" ht="12.75">
+      <c r="A527" s="6"/>
+    </row>
+    <row r="528" spans="1:1" ht="12.75">
+      <c r="A528" s="6"/>
+    </row>
+    <row r="529" spans="1:1" ht="12.75">
+      <c r="A529" s="6"/>
+    </row>
+    <row r="530" spans="1:1" ht="12.75">
+      <c r="A530" s="6"/>
+    </row>
+    <row r="531" spans="1:1" ht="12.75">
+      <c r="A531" s="6"/>
+    </row>
+    <row r="532" spans="1:1" ht="12.75">
+      <c r="A532" s="6"/>
+    </row>
+    <row r="533" spans="1:1" ht="12.75">
+      <c r="A533" s="6"/>
+    </row>
+    <row r="534" spans="1:1" ht="12.75">
+      <c r="A534" s="6"/>
+    </row>
+    <row r="535" spans="1:1" ht="12.75">
+      <c r="A535" s="6"/>
+    </row>
+    <row r="536" spans="1:1" ht="12.75">
+      <c r="A536" s="6"/>
+    </row>
+    <row r="537" spans="1:1" ht="12.75">
+      <c r="A537" s="6"/>
+    </row>
+    <row r="538" spans="1:1" ht="12.75">
+      <c r="A538" s="6"/>
+    </row>
+    <row r="539" spans="1:1" ht="12.75">
+      <c r="A539" s="6"/>
+    </row>
+    <row r="540" spans="1:1" ht="12.75">
+      <c r="A540" s="6"/>
+    </row>
+    <row r="541" spans="1:1" ht="12.75">
+      <c r="A541" s="6"/>
+    </row>
+    <row r="542" spans="1:1" ht="12.75">
+      <c r="A542" s="6"/>
+    </row>
+    <row r="543" spans="1:1" ht="12.75">
+      <c r="A543" s="6"/>
+    </row>
+    <row r="544" spans="1:1" ht="12.75">
+      <c r="A544" s="6"/>
+    </row>
+    <row r="545" spans="1:1" ht="12.75">
+      <c r="A545" s="6"/>
+    </row>
+    <row r="546" spans="1:1" ht="12.75">
+      <c r="A546" s="6"/>
+    </row>
+    <row r="547" spans="1:1" ht="12.75">
+      <c r="A547" s="6"/>
+    </row>
+    <row r="548" spans="1:1" ht="12.75">
+      <c r="A548" s="6"/>
+    </row>
+    <row r="549" spans="1:1" ht="12.75">
+      <c r="A549" s="6"/>
+    </row>
+    <row r="550" spans="1:1" ht="12.75">
+      <c r="A550" s="6"/>
+    </row>
+    <row r="551" spans="1:1" ht="12.75">
+      <c r="A551" s="6"/>
+    </row>
+    <row r="552" spans="1:1" ht="12.75">
+      <c r="A552" s="6"/>
+    </row>
+    <row r="553" spans="1:1" ht="12.75">
+      <c r="A553" s="6"/>
+    </row>
+    <row r="554" spans="1:1" ht="12.75">
+      <c r="A554" s="6"/>
+    </row>
+    <row r="555" spans="1:1" ht="12.75">
+      <c r="A555" s="6"/>
+    </row>
+    <row r="556" spans="1:1" ht="12.75">
+      <c r="A556" s="6"/>
+    </row>
+    <row r="557" spans="1:1" ht="12.75">
+      <c r="A557" s="6"/>
+    </row>
+    <row r="558" spans="1:1" ht="12.75">
+      <c r="A558" s="6"/>
+    </row>
+    <row r="559" spans="1:1" ht="12.75">
+      <c r="A559" s="6"/>
+    </row>
+    <row r="560" spans="1:1" ht="12.75">
+      <c r="A560" s="6"/>
+    </row>
+    <row r="561" spans="1:1" ht="12.75">
+      <c r="A561" s="6"/>
+    </row>
+    <row r="562" spans="1:1" ht="12.75">
+      <c r="A562" s="6"/>
+    </row>
+    <row r="563" spans="1:1" ht="12.75">
+      <c r="A563" s="6"/>
+    </row>
+    <row r="564" spans="1:1" ht="12.75">
+      <c r="A564" s="6"/>
+    </row>
+    <row r="565" spans="1:1" ht="12.75">
+      <c r="A565" s="6"/>
+    </row>
+    <row r="566" spans="1:1" ht="12.75">
+      <c r="A566" s="6"/>
+    </row>
+    <row r="567" spans="1:1" ht="12.75">
+      <c r="A567" s="6"/>
+    </row>
+    <row r="568" spans="1:1" ht="12.75">
+      <c r="A568" s="6"/>
+    </row>
+    <row r="569" spans="1:1" ht="12.75">
+      <c r="A569" s="6"/>
+    </row>
+    <row r="570" spans="1:1" ht="12.75">
+      <c r="A570" s="6"/>
+    </row>
+    <row r="571" spans="1:1" ht="12.75">
+      <c r="A571" s="6"/>
+    </row>
+    <row r="572" spans="1:1" ht="12.75">
+      <c r="A572" s="6"/>
+    </row>
+    <row r="573" spans="1:1" ht="12.75">
+      <c r="A573" s="6"/>
+    </row>
+    <row r="574" spans="1:1" ht="12.75">
+      <c r="A574" s="6"/>
+    </row>
+    <row r="575" spans="1:1" ht="12.75">
+      <c r="A575" s="6"/>
+    </row>
+    <row r="576" spans="1:1" ht="12.75">
+      <c r="A576" s="6"/>
+    </row>
+    <row r="577" spans="1:1" ht="12.75">
+      <c r="A577" s="6"/>
+    </row>
+    <row r="578" spans="1:1" ht="12.75">
+      <c r="A578" s="6"/>
+    </row>
+    <row r="579" spans="1:1" ht="12.75">
+      <c r="A579" s="6"/>
+    </row>
+    <row r="580" spans="1:1" ht="12.75">
+      <c r="A580" s="6"/>
+    </row>
+    <row r="581" spans="1:1" ht="12.75">
+      <c r="A581" s="6"/>
+    </row>
+    <row r="582" spans="1:1" ht="12.75">
+      <c r="A582" s="6"/>
+    </row>
+    <row r="583" spans="1:1" ht="12.75">
+      <c r="A583" s="6"/>
+    </row>
+    <row r="584" spans="1:1" ht="12.75">
+      <c r="A584" s="6"/>
+    </row>
+    <row r="585" spans="1:1" ht="12.75">
+      <c r="A585" s="6"/>
+    </row>
+    <row r="586" spans="1:1" ht="12.75">
+      <c r="A586" s="6"/>
+    </row>
+    <row r="587" spans="1:1" ht="12.75">
+      <c r="A587" s="6"/>
+    </row>
+    <row r="588" spans="1:1" ht="12.75">
+      <c r="A588" s="6"/>
+    </row>
+    <row r="589" spans="1:1" ht="12.75">
+      <c r="A589" s="6"/>
+    </row>
+    <row r="590" spans="1:1" ht="12.75">
+      <c r="A590" s="6"/>
+    </row>
+    <row r="591" spans="1:1" ht="12.75">
+      <c r="A591" s="6"/>
+    </row>
+    <row r="592" spans="1:1" ht="12.75">
+      <c r="A592" s="6"/>
+    </row>
+    <row r="593" spans="1:1" ht="12.75">
+      <c r="A593" s="6"/>
+    </row>
+    <row r="594" spans="1:1" ht="12.75">
+      <c r="A594" s="6"/>
+    </row>
+    <row r="595" spans="1:1" ht="12.75">
+      <c r="A595" s="6"/>
+    </row>
+    <row r="596" spans="1:1" ht="12.75">
+      <c r="A596" s="6"/>
+    </row>
+    <row r="597" spans="1:1" ht="12.75">
+      <c r="A597" s="6"/>
+    </row>
+    <row r="598" spans="1:1" ht="12.75">
+      <c r="A598" s="6"/>
+    </row>
+    <row r="599" spans="1:1" ht="12.75">
+      <c r="A599" s="6"/>
+    </row>
+    <row r="600" spans="1:1" ht="12.75">
+      <c r="A600" s="6"/>
+    </row>
+    <row r="601" spans="1:1" ht="12.75">
+      <c r="A601" s="6"/>
+    </row>
+    <row r="602" spans="1:1" ht="12.75">
+      <c r="A602" s="6"/>
+    </row>
+    <row r="603" spans="1:1" ht="12.75">
+      <c r="A603" s="6"/>
+    </row>
+    <row r="604" spans="1:1" ht="12.75">
+      <c r="A604" s="6"/>
+    </row>
+    <row r="605" spans="1:1" ht="12.75">
+      <c r="A605" s="6"/>
+    </row>
+    <row r="606" spans="1:1" ht="12.75">
+      <c r="A606" s="6"/>
+    </row>
+    <row r="607" spans="1:1" ht="12.75">
+      <c r="A607" s="6"/>
+    </row>
+    <row r="608" spans="1:1" ht="12.75">
+      <c r="A608" s="6"/>
+    </row>
+    <row r="609" spans="1:1" ht="12.75">
+      <c r="A609" s="6"/>
+    </row>
+    <row r="610" spans="1:1" ht="12.75">
+      <c r="A610" s="6"/>
+    </row>
+    <row r="611" spans="1:1" ht="12.75">
+      <c r="A611" s="6"/>
+    </row>
+    <row r="612" spans="1:1" ht="12.75">
+      <c r="A612" s="6"/>
+    </row>
+    <row r="613" spans="1:1" ht="12.75">
+      <c r="A613" s="6"/>
+    </row>
+    <row r="614" spans="1:1" ht="12.75">
+      <c r="A614" s="6"/>
+    </row>
+    <row r="615" spans="1:1" ht="12.75">
+      <c r="A615" s="6"/>
+    </row>
+    <row r="616" spans="1:1" ht="12.75">
+      <c r="A616" s="6"/>
+    </row>
+    <row r="617" spans="1:1" ht="12.75">
+      <c r="A617" s="6"/>
+    </row>
+    <row r="618" spans="1:1" ht="12.75">
+      <c r="A618" s="6"/>
+    </row>
+    <row r="619" spans="1:1" ht="12.75">
+      <c r="A619" s="6"/>
+    </row>
+    <row r="620" spans="1:1" ht="12.75">
+      <c r="A620" s="6"/>
+    </row>
+    <row r="621" spans="1:1" ht="12.75">
+      <c r="A621" s="6"/>
+    </row>
+    <row r="622" spans="1:1" ht="12.75">
+      <c r="A622" s="6"/>
+    </row>
+    <row r="623" spans="1:1" ht="12.75">
+      <c r="A623" s="6"/>
+    </row>
+    <row r="624" spans="1:1" ht="12.75">
+      <c r="A624" s="6"/>
+    </row>
+    <row r="625" spans="1:1" ht="12.75">
+      <c r="A625" s="6"/>
+    </row>
+    <row r="626" spans="1:1" ht="12.75">
+      <c r="A626" s="6"/>
+    </row>
+    <row r="627" spans="1:1" ht="12.75">
+      <c r="A627" s="6"/>
+    </row>
+    <row r="628" spans="1:1" ht="12.75">
+      <c r="A628" s="6"/>
+    </row>
+    <row r="629" spans="1:1" ht="12.75">
+      <c r="A629" s="6"/>
+    </row>
+    <row r="630" spans="1:1" ht="12.75">
+      <c r="A630" s="6"/>
+    </row>
+    <row r="631" spans="1:1" ht="12.75">
+      <c r="A631" s="6"/>
+    </row>
+    <row r="632" spans="1:1" ht="12.75">
+      <c r="A632" s="6"/>
+    </row>
+    <row r="633" spans="1:1" ht="12.75">
+      <c r="A633" s="6"/>
+    </row>
+    <row r="634" spans="1:1" ht="12.75">
+      <c r="A634" s="6"/>
+    </row>
+    <row r="635" spans="1:1" ht="12.75">
+      <c r="A635" s="6"/>
+    </row>
+    <row r="636" spans="1:1" ht="12.75">
+      <c r="A636" s="6"/>
+    </row>
+    <row r="637" spans="1:1" ht="12.75">
+      <c r="A637" s="6"/>
+    </row>
+    <row r="638" spans="1:1" ht="12.75">
+      <c r="A638" s="6"/>
+    </row>
+    <row r="639" spans="1:1" ht="12.75">
+      <c r="A639" s="6"/>
+    </row>
+    <row r="640" spans="1:1" ht="12.75">
+      <c r="A640" s="6"/>
+    </row>
+    <row r="641" spans="1:1" ht="12.75">
+      <c r="A641" s="6"/>
+    </row>
+    <row r="642" spans="1:1" ht="12.75">
+      <c r="A642" s="6"/>
+    </row>
+    <row r="643" spans="1:1" ht="12.75">
+      <c r="A643" s="6"/>
+    </row>
+    <row r="644" spans="1:1" ht="12.75">
+      <c r="A644" s="6"/>
+    </row>
+    <row r="645" spans="1:1" ht="12.75">
+      <c r="A645" s="6"/>
+    </row>
+    <row r="646" spans="1:1" ht="12.75">
+      <c r="A646" s="6"/>
+    </row>
+    <row r="647" spans="1:1" ht="12.75">
+      <c r="A647" s="6"/>
+    </row>
+    <row r="648" spans="1:1" ht="12.75">
+      <c r="A648" s="6"/>
+    </row>
+    <row r="649" spans="1:1" ht="12.75">
+      <c r="A649" s="6"/>
+    </row>
+    <row r="650" spans="1:1" ht="12.75">
+      <c r="A650" s="6"/>
+    </row>
+    <row r="651" spans="1:1" ht="12.75">
+      <c r="A651" s="6"/>
+    </row>
+    <row r="652" spans="1:1" ht="12.75">
+      <c r="A652" s="6"/>
+    </row>
+    <row r="653" spans="1:1" ht="12.75">
+      <c r="A653" s="6"/>
+    </row>
+    <row r="654" spans="1:1" ht="12.75">
+      <c r="A654" s="6"/>
+    </row>
+    <row r="655" spans="1:1" ht="12.75">
+      <c r="A655" s="6"/>
+    </row>
+    <row r="656" spans="1:1" ht="12.75">
+      <c r="A656" s="6"/>
+    </row>
+    <row r="657" spans="1:1" ht="12.75">
+      <c r="A657" s="6"/>
+    </row>
+    <row r="658" spans="1:1" ht="12.75">
+      <c r="A658" s="6"/>
+    </row>
+    <row r="659" spans="1:1" ht="12.75">
+      <c r="A659" s="6"/>
+    </row>
+    <row r="660" spans="1:1" ht="12.75">
+      <c r="A660" s="6"/>
+    </row>
+    <row r="661" spans="1:1" ht="12.75">
+      <c r="A661" s="6"/>
+    </row>
+    <row r="662" spans="1:1" ht="12.75">
+      <c r="A662" s="6"/>
+    </row>
+    <row r="663" spans="1:1" ht="12.75">
+      <c r="A663" s="6"/>
+    </row>
+    <row r="664" spans="1:1" ht="12.75">
+      <c r="A664" s="6"/>
+    </row>
+    <row r="665" spans="1:1" ht="12.75">
+      <c r="A665" s="6"/>
+    </row>
+    <row r="666" spans="1:1" ht="12.75">
+      <c r="A666" s="6"/>
+    </row>
+    <row r="667" spans="1:1" ht="12.75">
+      <c r="A667" s="6"/>
+    </row>
+    <row r="668" spans="1:1" ht="12.75">
+      <c r="A668" s="6"/>
+    </row>
+    <row r="669" spans="1:1" ht="12.75">
+      <c r="A669" s="6"/>
+    </row>
+    <row r="670" spans="1:1" ht="12.75">
+      <c r="A670" s="6"/>
+    </row>
+    <row r="671" spans="1:1" ht="12.75">
+      <c r="A671" s="6"/>
+    </row>
+    <row r="672" spans="1:1" ht="12.75">
+      <c r="A672" s="6"/>
+    </row>
+    <row r="673" spans="1:1" ht="12.75">
+      <c r="A673" s="6"/>
+    </row>
+    <row r="674" spans="1:1" ht="12.75">
+      <c r="A674" s="6"/>
+    </row>
+    <row r="675" spans="1:1" ht="12.75">
+      <c r="A675" s="6"/>
+    </row>
+    <row r="676" spans="1:1" ht="12.75">
+      <c r="A676" s="6"/>
+    </row>
+    <row r="677" spans="1:1" ht="12.75">
+      <c r="A677" s="6"/>
+    </row>
+    <row r="678" spans="1:1" ht="12.75">
+      <c r="A678" s="6"/>
+    </row>
+    <row r="679" spans="1:1" ht="12.75">
+      <c r="A679" s="6"/>
+    </row>
+    <row r="680" spans="1:1" ht="12.75">
+      <c r="A680" s="6"/>
+    </row>
+    <row r="681" spans="1:1" ht="12.75">
+      <c r="A681" s="6"/>
+    </row>
+    <row r="682" spans="1:1" ht="12.75">
+      <c r="A682" s="6"/>
+    </row>
+    <row r="683" spans="1:1" ht="12.75">
+      <c r="A683" s="6"/>
+    </row>
+    <row r="684" spans="1:1" ht="12.75">
+      <c r="A684" s="6"/>
+    </row>
+    <row r="685" spans="1:1" ht="12.75">
+      <c r="A685" s="6"/>
+    </row>
+    <row r="686" spans="1:1" ht="12.75">
+      <c r="A686" s="6"/>
+    </row>
+    <row r="687" spans="1:1" ht="12.75">
+      <c r="A687" s="6"/>
+    </row>
+    <row r="688" spans="1:1" ht="12.75">
+      <c r="A688" s="6"/>
+    </row>
+    <row r="689" spans="1:1" ht="12.75">
+      <c r="A689" s="6"/>
+    </row>
+    <row r="690" spans="1:1" ht="12.75">
+      <c r="A690" s="6"/>
+    </row>
+    <row r="691" spans="1:1" ht="12.75">
+      <c r="A691" s="6"/>
+    </row>
+    <row r="692" spans="1:1" ht="12.75">
+      <c r="A692" s="6"/>
+    </row>
+    <row r="693" spans="1:1" ht="12.75">
+      <c r="A693" s="6"/>
+    </row>
+    <row r="694" spans="1:1" ht="12.75">
+      <c r="A694" s="6"/>
+    </row>
+    <row r="695" spans="1:1" ht="12.75">
+      <c r="A695" s="6"/>
+    </row>
+    <row r="696" spans="1:1" ht="12.75">
+      <c r="A696" s="6"/>
+    </row>
+    <row r="697" spans="1:1" ht="12.75">
+      <c r="A697" s="6"/>
+    </row>
+    <row r="698" spans="1:1" ht="12.75">
+      <c r="A698" s="6"/>
+    </row>
+    <row r="699" spans="1:1" ht="12.75">
+      <c r="A699" s="6"/>
+    </row>
+    <row r="700" spans="1:1" ht="12.75">
+      <c r="A700" s="6"/>
+    </row>
+    <row r="701" spans="1:1" ht="12.75">
+      <c r="A701" s="6"/>
+    </row>
+    <row r="702" spans="1:1" ht="12.75">
+      <c r="A702" s="6"/>
+    </row>
+    <row r="703" spans="1:1" ht="12.75">
+      <c r="A703" s="6"/>
+    </row>
+    <row r="704" spans="1:1" ht="12.75">
+      <c r="A704" s="6"/>
+    </row>
+    <row r="705" spans="1:1" ht="12.75">
+      <c r="A705" s="6"/>
+    </row>
+    <row r="706" spans="1:1" ht="12.75">
+      <c r="A706" s="6"/>
+    </row>
+    <row r="707" spans="1:1" ht="12.75">
+      <c r="A707" s="6"/>
+    </row>
+    <row r="708" spans="1:1" ht="12.75">
+      <c r="A708" s="6"/>
+    </row>
+    <row r="709" spans="1:1" ht="12.75">
+      <c r="A709" s="6"/>
+    </row>
+    <row r="710" spans="1:1" ht="12.75">
+      <c r="A710" s="6"/>
+    </row>
+    <row r="711" spans="1:1" ht="12.75">
+      <c r="A711" s="6"/>
+    </row>
+    <row r="712" spans="1:1" ht="12.75">
+      <c r="A712" s="6"/>
+    </row>
+    <row r="713" spans="1:1" ht="12.75">
+      <c r="A713" s="6"/>
+    </row>
+    <row r="714" spans="1:1" ht="12.75">
+      <c r="A714" s="6"/>
+    </row>
+    <row r="715" spans="1:1" ht="12.75">
+      <c r="A715" s="6"/>
+    </row>
+    <row r="716" spans="1:1" ht="12.75">
+      <c r="A716" s="6"/>
+    </row>
+    <row r="717" spans="1:1" ht="12.75">
+      <c r="A717" s="6"/>
+    </row>
+    <row r="718" spans="1:1" ht="12.75">
+      <c r="A718" s="6"/>
+    </row>
+    <row r="719" spans="1:1" ht="12.75">
+      <c r="A719" s="6"/>
+    </row>
+    <row r="720" spans="1:1" ht="12.75">
+      <c r="A720" s="6"/>
+    </row>
+    <row r="721" spans="1:1" ht="12.75">
+      <c r="A721" s="6"/>
+    </row>
+    <row r="722" spans="1:1" ht="12.75">
+      <c r="A722" s="6"/>
+    </row>
+    <row r="723" spans="1:1" ht="12.75">
+      <c r="A723" s="6"/>
+    </row>
+    <row r="724" spans="1:1" ht="12.75">
+      <c r="A724" s="6"/>
+    </row>
+    <row r="725" spans="1:1" ht="12.75">
+      <c r="A725" s="6"/>
+    </row>
+    <row r="726" spans="1:1" ht="12.75">
+      <c r="A726" s="6"/>
+    </row>
+    <row r="727" spans="1:1" ht="12.75">
+      <c r="A727" s="6"/>
+    </row>
+    <row r="728" spans="1:1" ht="12.75">
+      <c r="A728" s="6"/>
+    </row>
+    <row r="729" spans="1:1" ht="12.75">
+      <c r="A729" s="6"/>
+    </row>
+    <row r="730" spans="1:1" ht="12.75">
+      <c r="A730" s="6"/>
+    </row>
+    <row r="731" spans="1:1" ht="12.75">
+      <c r="A731" s="6"/>
+    </row>
+    <row r="732" spans="1:1" ht="12.75">
+      <c r="A732" s="6"/>
+    </row>
+    <row r="733" spans="1:1" ht="12.75">
+      <c r="A733" s="6"/>
+    </row>
+    <row r="734" spans="1:1" ht="12.75">
+      <c r="A734" s="6"/>
+    </row>
+    <row r="735" spans="1:1" ht="12.75">
+      <c r="A735" s="6"/>
+    </row>
+    <row r="736" spans="1:1" ht="12.75">
+      <c r="A736" s="6"/>
+    </row>
+    <row r="737" spans="1:1" ht="12.75">
+      <c r="A737" s="6"/>
+    </row>
+    <row r="738" spans="1:1" ht="12.75">
+      <c r="A738" s="6"/>
+    </row>
+    <row r="739" spans="1:1" ht="12.75">
+      <c r="A739" s="6"/>
+    </row>
+    <row r="740" spans="1:1" ht="12.75">
+      <c r="A740" s="6"/>
+    </row>
+    <row r="741" spans="1:1" ht="12.75">
+      <c r="A741" s="6"/>
+    </row>
+    <row r="742" spans="1:1" ht="12.75">
+      <c r="A742" s="6"/>
+    </row>
+    <row r="743" spans="1:1" ht="12.75">
+      <c r="A743" s="6"/>
+    </row>
+    <row r="744" spans="1:1" ht="12.75">
+      <c r="A744" s="6"/>
+    </row>
+    <row r="745" spans="1:1" ht="12.75">
+      <c r="A745" s="6"/>
+    </row>
+    <row r="746" spans="1:1" ht="12.75">
+      <c r="A746" s="6"/>
+    </row>
+    <row r="747" spans="1:1" ht="12.75">
+      <c r="A747" s="6"/>
+    </row>
+    <row r="748" spans="1:1" ht="12.75">
+      <c r="A748" s="6"/>
+    </row>
+    <row r="749" spans="1:1" ht="12.75">
+      <c r="A749" s="6"/>
+    </row>
+    <row r="750" spans="1:1" ht="12.75">
+      <c r="A750" s="6"/>
+    </row>
+    <row r="751" spans="1:1" ht="12.75">
+      <c r="A751" s="6"/>
+    </row>
+    <row r="752" spans="1:1" ht="12.75">
+      <c r="A752" s="6"/>
+    </row>
+    <row r="753" spans="1:1" ht="12.75">
+      <c r="A753" s="6"/>
+    </row>
+    <row r="754" spans="1:1" ht="12.75">
+      <c r="A754" s="6"/>
+    </row>
+    <row r="755" spans="1:1" ht="12.75">
+      <c r="A755" s="6"/>
+    </row>
+    <row r="756" spans="1:1" ht="12.75">
+      <c r="A756" s="6"/>
+    </row>
+    <row r="757" spans="1:1" ht="12.75">
+      <c r="A757" s="6"/>
+    </row>
+    <row r="758" spans="1:1" ht="12.75">
+      <c r="A758" s="6"/>
+    </row>
+    <row r="759" spans="1:1" ht="12.75">
+      <c r="A759" s="6"/>
+    </row>
+    <row r="760" spans="1:1" ht="12.75">
+      <c r="A760" s="6"/>
+    </row>
+    <row r="761" spans="1:1" ht="12.75">
+      <c r="A761" s="6"/>
+    </row>
+    <row r="762" spans="1:1" ht="12.75">
+      <c r="A762" s="6"/>
+    </row>
+    <row r="763" spans="1:1" ht="12.75">
+      <c r="A763" s="6"/>
+    </row>
+    <row r="764" spans="1:1" ht="12.75">
+      <c r="A764" s="6"/>
+    </row>
+    <row r="765" spans="1:1" ht="12.75">
+      <c r="A765" s="6"/>
+    </row>
+    <row r="766" spans="1:1" ht="12.75">
+      <c r="A766" s="6"/>
+    </row>
+    <row r="767" spans="1:1" ht="12.75">
+      <c r="A767" s="6"/>
+    </row>
+    <row r="768" spans="1:1" ht="12.75">
+      <c r="A768" s="6"/>
+    </row>
+    <row r="769" spans="1:1" ht="12.75">
+      <c r="A769" s="6"/>
+    </row>
+    <row r="770" spans="1:1" ht="12.75">
+      <c r="A770" s="6"/>
+    </row>
+    <row r="771" spans="1:1" ht="12.75">
+      <c r="A771" s="6"/>
+    </row>
+    <row r="772" spans="1:1" ht="12.75">
+      <c r="A772" s="6"/>
+    </row>
+    <row r="773" spans="1:1" ht="12.75">
+      <c r="A773" s="6"/>
+    </row>
+    <row r="774" spans="1:1" ht="12.75">
+      <c r="A774" s="6"/>
+    </row>
+    <row r="775" spans="1:1" ht="12.75">
+      <c r="A775" s="6"/>
+    </row>
+    <row r="776" spans="1:1" ht="12.75">
+      <c r="A776" s="6"/>
+    </row>
+    <row r="777" spans="1:1" ht="12.75">
+      <c r="A777" s="6"/>
+    </row>
+    <row r="778" spans="1:1" ht="12.75">
+      <c r="A778" s="6"/>
+    </row>
+    <row r="779" spans="1:1" ht="12.75">
+      <c r="A779" s="6"/>
+    </row>
+    <row r="780" spans="1:1" ht="12.75">
+      <c r="A780" s="6"/>
+    </row>
+    <row r="781" spans="1:1" ht="12.75">
+      <c r="A781" s="6"/>
+    </row>
+    <row r="782" spans="1:1" ht="12.75">
+      <c r="A782" s="6"/>
+    </row>
+    <row r="783" spans="1:1" ht="12.75">
+      <c r="A783" s="6"/>
+    </row>
+    <row r="784" spans="1:1" ht="12.75">
+      <c r="A784" s="6"/>
+    </row>
+    <row r="785" spans="1:1" ht="12.75">
+      <c r="A785" s="6"/>
+    </row>
+    <row r="786" spans="1:1" ht="12.75">
+      <c r="A786" s="6"/>
+    </row>
+    <row r="787" spans="1:1" ht="12.75">
+      <c r="A787" s="6"/>
+    </row>
+    <row r="788" spans="1:1" ht="12.75">
+      <c r="A788" s="6"/>
+    </row>
+    <row r="789" spans="1:1" ht="12.75">
+      <c r="A789" s="6"/>
+    </row>
+    <row r="790" spans="1:1" ht="12.75">
+      <c r="A790" s="6"/>
+    </row>
+    <row r="791" spans="1:1" ht="12.75">
+      <c r="A791" s="6"/>
+    </row>
+    <row r="792" spans="1:1" ht="12.75">
+      <c r="A792" s="6"/>
+    </row>
+    <row r="793" spans="1:1" ht="12.75">
+      <c r="A793" s="6"/>
+    </row>
+    <row r="794" spans="1:1" ht="12.75">
+      <c r="A794" s="6"/>
+    </row>
+    <row r="795" spans="1:1" ht="12.75">
+      <c r="A795" s="6"/>
+    </row>
+    <row r="796" spans="1:1" ht="12.75">
+      <c r="A796" s="6"/>
+    </row>
+    <row r="797" spans="1:1" ht="12.75">
+      <c r="A797" s="6"/>
+    </row>
+    <row r="798" spans="1:1" ht="12.75">
+      <c r="A798" s="6"/>
+    </row>
+    <row r="799" spans="1:1" ht="12.75">
+      <c r="A799" s="6"/>
+    </row>
+    <row r="800" spans="1:1" ht="12.75">
+      <c r="A800" s="6"/>
+    </row>
+    <row r="801" spans="1:1" ht="12.75">
+      <c r="A801" s="6"/>
+    </row>
+    <row r="802" spans="1:1" ht="12.75">
+      <c r="A802" s="6"/>
+    </row>
+    <row r="803" spans="1:1" ht="12.75">
+      <c r="A803" s="6"/>
+    </row>
+    <row r="804" spans="1:1" ht="12.75">
+      <c r="A804" s="6"/>
+    </row>
+    <row r="805" spans="1:1" ht="12.75">
+      <c r="A805" s="6"/>
+    </row>
+    <row r="806" spans="1:1" ht="12.75">
+      <c r="A806" s="6"/>
+    </row>
+    <row r="807" spans="1:1" ht="12.75">
+      <c r="A807" s="6"/>
+    </row>
+    <row r="808" spans="1:1" ht="12.75">
+      <c r="A808" s="6"/>
+    </row>
+    <row r="809" spans="1:1" ht="12.75">
+      <c r="A809" s="6"/>
+    </row>
+    <row r="810" spans="1:1" ht="12.75">
+      <c r="A810" s="6"/>
+    </row>
+    <row r="811" spans="1:1" ht="12.75">
+      <c r="A811" s="6"/>
+    </row>
+    <row r="812" spans="1:1" ht="12.75">
+      <c r="A812" s="6"/>
+    </row>
+    <row r="813" spans="1:1" ht="12.75">
+      <c r="A813" s="6"/>
+    </row>
+    <row r="814" spans="1:1" ht="12.75">
+      <c r="A814" s="6"/>
+    </row>
+    <row r="815" spans="1:1" ht="12.75">
+      <c r="A815" s="6"/>
+    </row>
+    <row r="816" spans="1:1" ht="12.75">
+      <c r="A816" s="6"/>
+    </row>
+    <row r="817" spans="1:1" ht="12.75">
+      <c r="A817" s="6"/>
+    </row>
+    <row r="818" spans="1:1" ht="12.75">
+      <c r="A818" s="6"/>
+    </row>
+    <row r="819" spans="1:1" ht="12.75">
+      <c r="A819" s="6"/>
+    </row>
+    <row r="820" spans="1:1" ht="12.75">
+      <c r="A820" s="6"/>
+    </row>
+    <row r="821" spans="1:1" ht="12.75">
+      <c r="A821" s="6"/>
+    </row>
+    <row r="822" spans="1:1" ht="12.75">
+      <c r="A822" s="6"/>
+    </row>
+    <row r="823" spans="1:1" ht="12.75">
+      <c r="A823" s="6"/>
+    </row>
+    <row r="824" spans="1:1" ht="12.75">
+      <c r="A824" s="6"/>
+    </row>
+    <row r="825" spans="1:1" ht="12.75">
+      <c r="A825" s="6"/>
+    </row>
+    <row r="826" spans="1:1" ht="12.75">
+      <c r="A826" s="6"/>
+    </row>
+    <row r="827" spans="1:1" ht="12.75">
+      <c r="A827" s="6"/>
+    </row>
+    <row r="828" spans="1:1" ht="12.75">
+      <c r="A828" s="6"/>
+    </row>
+    <row r="829" spans="1:1" ht="12.75">
+      <c r="A829" s="6"/>
+    </row>
+    <row r="830" spans="1:1" ht="12.75">
+      <c r="A830" s="6"/>
+    </row>
+    <row r="831" spans="1:1" ht="12.75">
+      <c r="A831" s="6"/>
+    </row>
+    <row r="832" spans="1:1" ht="12.75">
+      <c r="A832" s="6"/>
+    </row>
+    <row r="833" spans="1:1" ht="12.75">
+      <c r="A833" s="6"/>
+    </row>
+    <row r="834" spans="1:1" ht="12.75">
+      <c r="A834" s="6"/>
+    </row>
+    <row r="835" spans="1:1" ht="12.75">
+      <c r="A835" s="6"/>
+    </row>
+    <row r="836" spans="1:1" ht="12.75">
+      <c r="A836" s="6"/>
+    </row>
+    <row r="837" spans="1:1" ht="12.75">
+      <c r="A837" s="6"/>
+    </row>
+    <row r="838" spans="1:1" ht="12.75">
+      <c r="A838" s="6"/>
+    </row>
+    <row r="839" spans="1:1" ht="12.75">
+      <c r="A839" s="6"/>
+    </row>
+    <row r="840" spans="1:1" ht="12.75">
+      <c r="A840" s="6"/>
+    </row>
+    <row r="841" spans="1:1" ht="12.75">
+      <c r="A841" s="6"/>
+    </row>
+    <row r="842" spans="1:1" ht="12.75">
+      <c r="A842" s="6"/>
+    </row>
+    <row r="843" spans="1:1" ht="12.75">
+      <c r="A843" s="6"/>
+    </row>
+    <row r="844" spans="1:1" ht="12.75">
+      <c r="A844" s="6"/>
+    </row>
+    <row r="845" spans="1:1" ht="12.75">
+      <c r="A845" s="6"/>
+    </row>
+    <row r="846" spans="1:1" ht="12.75">
+      <c r="A846" s="6"/>
+    </row>
+    <row r="847" spans="1:1" ht="12.75">
+      <c r="A847" s="6"/>
+    </row>
+    <row r="848" spans="1:1" ht="12.75">
+      <c r="A848" s="6"/>
+    </row>
+    <row r="849" spans="1:1" ht="12.75">
+      <c r="A849" s="6"/>
+    </row>
+    <row r="850" spans="1:1" ht="12.75">
+      <c r="A850" s="6"/>
+    </row>
+    <row r="851" spans="1:1" ht="12.75">
+      <c r="A851" s="6"/>
+    </row>
+    <row r="852" spans="1:1" ht="12.75">
+      <c r="A852" s="6"/>
+    </row>
+    <row r="853" spans="1:1" ht="12.75">
+      <c r="A853" s="6"/>
+    </row>
+    <row r="854" spans="1:1" ht="12.75">
+      <c r="A854" s="6"/>
+    </row>
+    <row r="855" spans="1:1" ht="12.75">
+      <c r="A855" s="6"/>
+    </row>
+    <row r="856" spans="1:1" ht="12.75">
+      <c r="A856" s="6"/>
+    </row>
+    <row r="857" spans="1:1" ht="12.75">
+      <c r="A857" s="6"/>
+    </row>
+    <row r="858" spans="1:1" ht="12.75">
+      <c r="A858" s="6"/>
+    </row>
+    <row r="859" spans="1:1" ht="12.75">
+      <c r="A859" s="6"/>
+    </row>
+    <row r="860" spans="1:1" ht="12.75">
+      <c r="A860" s="6"/>
+    </row>
+    <row r="861" spans="1:1" ht="12.75">
+      <c r="A861" s="6"/>
+    </row>
+    <row r="862" spans="1:1" ht="12.75">
+      <c r="A862" s="6"/>
+    </row>
+    <row r="863" spans="1:1" ht="12.75">
+      <c r="A863" s="6"/>
+    </row>
+    <row r="864" spans="1:1" ht="12.75">
+      <c r="A864" s="6"/>
+    </row>
+    <row r="865" spans="1:1" ht="12.75">
+      <c r="A865" s="6"/>
+    </row>
+    <row r="866" spans="1:1" ht="12.75">
+      <c r="A866" s="6"/>
+    </row>
+    <row r="867" spans="1:1" ht="12.75">
+      <c r="A867" s="6"/>
+    </row>
+    <row r="868" spans="1:1" ht="12.75">
+      <c r="A868" s="6"/>
+    </row>
+    <row r="869" spans="1:1" ht="12.75">
+      <c r="A869" s="6"/>
+    </row>
+    <row r="870" spans="1:1" ht="12.75">
+      <c r="A870" s="6"/>
+    </row>
+    <row r="871" spans="1:1" ht="12.75">
+      <c r="A871" s="6"/>
+    </row>
+    <row r="872" spans="1:1" ht="12.75">
+      <c r="A872" s="6"/>
+    </row>
+    <row r="873" spans="1:1" ht="12.75">
+      <c r="A873" s="6"/>
+    </row>
+    <row r="874" spans="1:1" ht="12.75">
+      <c r="A874" s="6"/>
+    </row>
+    <row r="875" spans="1:1" ht="12.75">
+      <c r="A875" s="6"/>
+    </row>
+    <row r="876" spans="1:1" ht="12.75">
+      <c r="A876" s="6"/>
+    </row>
+    <row r="877" spans="1:1" ht="12.75">
+      <c r="A877" s="6"/>
+    </row>
+    <row r="878" spans="1:1" ht="12.75">
+      <c r="A878" s="6"/>
+    </row>
+    <row r="879" spans="1:1" ht="12.75">
+      <c r="A879" s="6"/>
+    </row>
+    <row r="880" spans="1:1" ht="12.75">
+      <c r="A880" s="6"/>
+    </row>
+    <row r="881" spans="1:1" ht="12.75">
+      <c r="A881" s="6"/>
+    </row>
+    <row r="882" spans="1:1" ht="12.75">
+      <c r="A882" s="6"/>
+    </row>
+    <row r="883" spans="1:1" ht="12.75">
+      <c r="A883" s="6"/>
+    </row>
+    <row r="884" spans="1:1" ht="12.75">
+      <c r="A884" s="6"/>
+    </row>
+    <row r="885" spans="1:1" ht="12.75">
+      <c r="A885" s="6"/>
+    </row>
+    <row r="886" spans="1:1" ht="12.75">
+      <c r="A886" s="6"/>
+    </row>
+    <row r="887" spans="1:1" ht="12.75">
+      <c r="A887" s="6"/>
+    </row>
+    <row r="888" spans="1:1" ht="12.75">
+      <c r="A888" s="6"/>
+    </row>
+    <row r="889" spans="1:1" ht="12.75">
+      <c r="A889" s="6"/>
+    </row>
+    <row r="890" spans="1:1" ht="12.75">
+      <c r="A890" s="6"/>
+    </row>
+    <row r="891" spans="1:1" ht="12.75">
+      <c r="A891" s="6"/>
+    </row>
+    <row r="892" spans="1:1" ht="12.75">
+      <c r="A892" s="6"/>
+    </row>
+    <row r="893" spans="1:1" ht="12.75">
+      <c r="A893" s="6"/>
+    </row>
+    <row r="894" spans="1:1" ht="12.75">
+      <c r="A894" s="6"/>
+    </row>
+    <row r="895" spans="1:1" ht="12.75">
+      <c r="A895" s="6"/>
+    </row>
+    <row r="896" spans="1:1" ht="12.75">
+      <c r="A896" s="6"/>
+    </row>
+    <row r="897" spans="1:1" ht="12.75">
+      <c r="A897" s="6"/>
+    </row>
+    <row r="898" spans="1:1" ht="12.75">
+      <c r="A898" s="6"/>
+    </row>
+    <row r="899" spans="1:1" ht="12.75">
+      <c r="A899" s="6"/>
+    </row>
+    <row r="900" spans="1:1" ht="12.75">
+      <c r="A900" s="6"/>
+    </row>
+    <row r="901" spans="1:1" ht="12.75">
+      <c r="A901" s="6"/>
+    </row>
+    <row r="902" spans="1:1" ht="12.75">
+      <c r="A902" s="6"/>
+    </row>
+    <row r="903" spans="1:1" ht="12.75">
+      <c r="A903" s="6"/>
+    </row>
+    <row r="904" spans="1:1" ht="12.75">
+      <c r="A904" s="6"/>
+    </row>
+    <row r="905" spans="1:1" ht="12.75">
+      <c r="A905" s="6"/>
+    </row>
+    <row r="906" spans="1:1" ht="12.75">
+      <c r="A906" s="6"/>
+    </row>
+    <row r="907" spans="1:1" ht="12.75">
+      <c r="A907" s="6"/>
+    </row>
+    <row r="908" spans="1:1" ht="12.75">
+      <c r="A908" s="6"/>
+    </row>
+    <row r="909" spans="1:1" ht="12.75">
+      <c r="A909" s="6"/>
+    </row>
+    <row r="910" spans="1:1" ht="12.75">
+      <c r="A910" s="6"/>
+    </row>
+    <row r="911" spans="1:1" ht="12.75">
+      <c r="A911" s="6"/>
+    </row>
+    <row r="912" spans="1:1" ht="12.75">
+      <c r="A912" s="6"/>
+    </row>
+    <row r="913" spans="1:1" ht="12.75">
+      <c r="A913" s="6"/>
+    </row>
+    <row r="914" spans="1:1" ht="12.75">
+      <c r="A914" s="6"/>
+    </row>
+    <row r="915" spans="1:1" ht="12.75">
+      <c r="A915" s="6"/>
+    </row>
+    <row r="916" spans="1:1" ht="12.75">
+      <c r="A916" s="6"/>
+    </row>
+    <row r="917" spans="1:1" ht="12.75">
+      <c r="A917" s="6"/>
+    </row>
+    <row r="918" spans="1:1" ht="12.75">
+      <c r="A918" s="6"/>
+    </row>
+    <row r="919" spans="1:1" ht="12.75">
+      <c r="A919" s="6"/>
+    </row>
+    <row r="920" spans="1:1" ht="12.75">
+      <c r="A920" s="6"/>
+    </row>
+    <row r="921" spans="1:1" ht="12.75">
+      <c r="A921" s="6"/>
+    </row>
+    <row r="922" spans="1:1" ht="12.75">
+      <c r="A922" s="6"/>
+    </row>
+    <row r="923" spans="1:1" ht="12.75">
+      <c r="A923" s="6"/>
+    </row>
+    <row r="924" spans="1:1" ht="12.75">
+      <c r="A924" s="6"/>
+    </row>
+    <row r="925" spans="1:1" ht="12.75">
+      <c r="A925" s="6"/>
+    </row>
+    <row r="926" spans="1:1" ht="12.75">
+      <c r="A926" s="6"/>
+    </row>
+    <row r="927" spans="1:1" ht="12.75">
+      <c r="A927" s="6"/>
+    </row>
+    <row r="928" spans="1:1" ht="12.75">
+      <c r="A928" s="6"/>
+    </row>
+    <row r="929" spans="1:1" ht="12.75">
+      <c r="A929" s="6"/>
+    </row>
+    <row r="930" spans="1:1" ht="12.75">
+      <c r="A930" s="6"/>
+    </row>
+    <row r="931" spans="1:1" ht="12.75">
+      <c r="A931" s="6"/>
+    </row>
+    <row r="932" spans="1:1" ht="12.75">
+      <c r="A932" s="6"/>
+    </row>
+    <row r="933" spans="1:1" ht="12.75">
+      <c r="A933" s="6"/>
+    </row>
+    <row r="934" spans="1:1" ht="12.75">
+      <c r="A934" s="6"/>
+    </row>
+    <row r="935" spans="1:1" ht="12.75">
+      <c r="A935" s="6"/>
+    </row>
+    <row r="936" spans="1:1" ht="12.75">
+      <c r="A936" s="6"/>
+    </row>
+    <row r="937" spans="1:1" ht="12.75">
+      <c r="A937" s="6"/>
+    </row>
+    <row r="938" spans="1:1" ht="12.75">
+      <c r="A938" s="6"/>
+    </row>
+    <row r="939" spans="1:1" ht="12.75">
+      <c r="A939" s="6"/>
+    </row>
+    <row r="940" spans="1:1" ht="12.75">
+      <c r="A940" s="6"/>
+    </row>
+    <row r="941" spans="1:1" ht="12.75">
+      <c r="A941" s="6"/>
+    </row>
+    <row r="942" spans="1:1" ht="12.75">
+      <c r="A942" s="6"/>
+    </row>
+    <row r="943" spans="1:1" ht="12.75">
+      <c r="A943" s="6"/>
+    </row>
+    <row r="944" spans="1:1" ht="12.75">
+      <c r="A944" s="6"/>
+    </row>
+    <row r="945" spans="1:1" ht="12.75">
+      <c r="A945" s="6"/>
+    </row>
+    <row r="946" spans="1:1" ht="12.75">
+      <c r="A946" s="6"/>
+    </row>
+    <row r="947" spans="1:1" ht="12.75">
+      <c r="A947" s="6"/>
+    </row>
+    <row r="948" spans="1:1" ht="12.75">
+      <c r="A948" s="6"/>
+    </row>
+    <row r="949" spans="1:1" ht="12.75">
+      <c r="A949" s="6"/>
+    </row>
+    <row r="950" spans="1:1" ht="12.75">
+      <c r="A950" s="6"/>
+    </row>
+    <row r="951" spans="1:1" ht="12.75">
+      <c r="A951" s="6"/>
+    </row>
+    <row r="952" spans="1:1" ht="12.75">
+      <c r="A952" s="6"/>
+    </row>
+    <row r="953" spans="1:1" ht="12.75">
+      <c r="A953" s="6"/>
+    </row>
+    <row r="954" spans="1:1" ht="12.75">
+      <c r="A954" s="6"/>
+    </row>
+    <row r="955" spans="1:1" ht="12.75">
+      <c r="A955" s="6"/>
+    </row>
+    <row r="956" spans="1:1" ht="12.75">
+      <c r="A956" s="6"/>
+    </row>
+    <row r="957" spans="1:1" ht="12.75">
+      <c r="A957" s="6"/>
+    </row>
+    <row r="958" spans="1:1" ht="12.75">
+      <c r="A958" s="6"/>
+    </row>
+    <row r="959" spans="1:1" ht="12.75">
+      <c r="A959" s="6"/>
+    </row>
+    <row r="960" spans="1:1" ht="12.75">
+      <c r="A960" s="6"/>
+    </row>
+    <row r="961" spans="1:63" ht="12.75">
+      <c r="A961" s="6"/>
+    </row>
+    <row r="962" spans="1:63" ht="12.75">
+      <c r="A962" s="6"/>
+    </row>
+    <row r="963" spans="1:63" ht="12.75">
+      <c r="A963" s="6"/>
+    </row>
+    <row r="964" spans="1:63" ht="12.75">
+      <c r="A964" s="6"/>
+    </row>
+    <row r="965" spans="1:63" ht="12.75">
+      <c r="A965" s="6"/>
+    </row>
+    <row r="966" spans="1:63" ht="12.75">
+      <c r="A966" s="6"/>
+    </row>
+    <row r="967" spans="1:63" ht="12.75">
+      <c r="A967" s="6"/>
+    </row>
+    <row r="968" spans="1:63" ht="12.75">
+      <c r="A968" s="6"/>
+    </row>
+    <row r="969" spans="1:63" ht="12.75">
+      <c r="A969" s="6"/>
+    </row>
+    <row r="970" spans="1:63" ht="12.75">
+      <c r="A970" s="6"/>
+    </row>
+    <row r="971" spans="1:63" ht="12.75">
+      <c r="A971" s="6"/>
+    </row>
+    <row r="972" spans="1:63" ht="12.75">
+      <c r="A972" s="6"/>
+    </row>
+    <row r="973" spans="1:63" ht="12.75">
+      <c r="A973" s="6"/>
+      <c r="D973" s="4"/>
+      <c r="E973" s="4"/>
+      <c r="F973" s="4"/>
+      <c r="G973" s="4"/>
+      <c r="H973" s="4"/>
+      <c r="I973" s="4"/>
+      <c r="J973" s="4"/>
+      <c r="K973" s="4"/>
+      <c r="L973" s="4"/>
+      <c r="M973" s="4"/>
+      <c r="N973" s="4"/>
+      <c r="O973" s="4"/>
+      <c r="P973" s="4"/>
+      <c r="Q973" s="4"/>
+      <c r="R973" s="4"/>
+      <c r="S973" s="4"/>
+      <c r="T973" s="4"/>
+      <c r="U973" s="4"/>
+      <c r="V973" s="4"/>
+      <c r="W973" s="4"/>
+      <c r="X973" s="4"/>
+      <c r="Y973" s="4"/>
+      <c r="Z973" s="4"/>
+      <c r="AA973" s="4"/>
+      <c r="AB973" s="4"/>
+      <c r="AC973" s="4"/>
+      <c r="AD973" s="4"/>
+      <c r="AE973" s="4"/>
+      <c r="AF973" s="4"/>
+      <c r="AG973" s="4"/>
+      <c r="AH973" s="4"/>
+      <c r="AI973" s="4"/>
+      <c r="AJ973" s="4"/>
+      <c r="AK973" s="4"/>
+      <c r="AL973" s="4"/>
+      <c r="AM973" s="4"/>
+      <c r="AN973" s="4"/>
+      <c r="AO973" s="4"/>
+      <c r="AP973" s="4"/>
+      <c r="AQ973" s="4"/>
+      <c r="AR973" s="4"/>
+      <c r="AS973" s="4"/>
+      <c r="AT973" s="4"/>
+      <c r="AU973" s="4"/>
+      <c r="AV973" s="4"/>
+      <c r="AW973" s="4"/>
+      <c r="AX973" s="4"/>
+      <c r="AY973" s="4"/>
+      <c r="AZ973" s="4"/>
+      <c r="BA973" s="4"/>
+      <c r="BB973" s="4"/>
+      <c r="BC973" s="4"/>
+      <c r="BD973" s="4"/>
+      <c r="BE973" s="4"/>
+      <c r="BF973" s="4"/>
+      <c r="BG973" s="4"/>
+      <c r="BH973" s="4"/>
+      <c r="BI973" s="4"/>
+      <c r="BJ973" s="4"/>
+      <c r="BK973" s="4"/>
+    </row>
+    <row r="974" spans="1:63" ht="12.75">
+      <c r="A974" s="6"/>
+    </row>
+    <row r="975" spans="1:63" ht="12.75">
+      <c r="A975" s="6"/>
+    </row>
+    <row r="976" spans="1:63" ht="12.75">
+      <c r="A976" s="6"/>
+    </row>
+    <row r="977" spans="1:1" ht="12.75">
+      <c r="A977" s="6"/>
+    </row>
+    <row r="978" spans="1:1" ht="12.75">
+      <c r="A978" s="6"/>
+    </row>
+    <row r="979" spans="1:1" ht="12.75">
+      <c r="A979" s="6"/>
+    </row>
+    <row r="980" spans="1:1" ht="12.75">
+      <c r="A980" s="6"/>
+    </row>
+    <row r="981" spans="1:1" ht="12.75">
+      <c r="A981" s="6"/>
+    </row>
+    <row r="982" spans="1:1" ht="12.75">
+      <c r="A982" s="6"/>
+    </row>
+    <row r="983" spans="1:1" ht="12.75">
+      <c r="A983" s="6"/>
+    </row>
+    <row r="984" spans="1:1" ht="12.75">
+      <c r="A984" s="6"/>
+    </row>
+    <row r="985" spans="1:1" ht="12.75">
+      <c r="A985" s="6"/>
+    </row>
+    <row r="986" spans="1:1" ht="12.75">
+      <c r="A986" s="6"/>
+    </row>
+    <row r="987" spans="1:1" ht="12.75">
+      <c r="A987" s="6"/>
+    </row>
+    <row r="988" spans="1:1" ht="12.75">
+      <c r="A988" s="6"/>
+    </row>
+    <row r="989" spans="1:1" ht="12.75">
+      <c r="A989" s="6"/>
+    </row>
+    <row r="990" spans="1:1" ht="12.75">
+      <c r="A990" s="6"/>
+    </row>
+    <row r="991" spans="1:1" ht="12.75">
+      <c r="A991" s="6"/>
+    </row>
+    <row r="992" spans="1:1" ht="12.75">
+      <c r="A992" s="6"/>
+    </row>
+    <row r="993" spans="1:3" ht="12.75">
+      <c r="A993" s="6"/>
+    </row>
+    <row r="994" spans="1:3" ht="12.75">
+      <c r="A994" s="6"/>
+    </row>
+    <row r="995" spans="1:3" ht="12.75">
+      <c r="A995" s="6"/>
+    </row>
+    <row r="996" spans="1:3" ht="12.75">
+      <c r="A996" s="5"/>
+      <c r="B996" s="4"/>
+      <c r="C996" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="K6:Q6"/>
+    <mergeCell ref="R6:X6"/>
+    <mergeCell ref="Y6:AE6"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>